--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>クラス名</t>
   </si>
@@ -159,13 +159,45 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>02_02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移異常</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="179" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -796,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,6 +995,163 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,52 +1182,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1059,114 +1202,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1916,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8:AB8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AV8" sqref="AV8:AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1928,34 +1968,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="83" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="80" t="s">
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -1968,62 +2008,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AI1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="65" t="s">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="88"/>
+      <c r="AO1" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="99"/>
+      <c r="AV1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="55"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="98"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="98"/>
+      <c r="BA1" s="98"/>
+      <c r="BB1" s="99"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="75" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78" t="s">
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="77"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="108"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2036,173 +2076,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="79">
+      <c r="AI2" s="110">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="77"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="58"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="100"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="102"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="96" t="s">
+      <c r="AH4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="95" t="s">
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="95"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95" t="s">
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="95"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="74" t="s">
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69" t="s">
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69" t="s">
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69" t="s">
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69" t="s">
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69" t="s">
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="102" t="s">
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="69" t="s">
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
+      <c r="AN5" s="76"/>
+      <c r="AO5" s="76"/>
+      <c r="AP5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69" t="s">
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="69"/>
+      <c r="AS5" s="72"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
+      <c r="AX5" s="72"/>
+      <c r="AY5" s="72"/>
+      <c r="AZ5" s="72"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="72"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2211,50 +2251,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70" t="s">
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70" t="s">
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70" t="s">
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70" t="s">
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="70"/>
+      <c r="AH6" s="73"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2276,27 +2316,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="70" t="s">
+      <c r="AP6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70" t="s">
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70" t="s">
+      <c r="AS6" s="73"/>
+      <c r="AT6" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70" t="s">
+      <c r="AU6" s="73"/>
+      <c r="AV6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
+      <c r="AW6" s="73"/>
+      <c r="AX6" s="73"/>
+      <c r="AY6" s="73"/>
+      <c r="AZ6" s="73"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="73"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2308,144 +2348,170 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="99" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="97" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="98">
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="74">
         <v>42909</v>
       </c>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98">
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74">
         <v>42909</v>
       </c>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98">
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74">
         <v>42909</v>
       </c>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="110">
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="75">
         <v>5</v>
       </c>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110">
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75">
         <v>3</v>
       </c>
-      <c r="AH7" s="110"/>
+      <c r="AH7" s="75"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38"/>
-      <c r="AK7" s="38">
-        <v>3</v>
+      <c r="AK7" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="98">
+      <c r="AP7" s="74">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98">
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74">
         <v>42909</v>
       </c>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98">
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74">
         <v>42909</v>
       </c>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98">
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74">
         <v>42909</v>
       </c>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="97"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="97"/>
-      <c r="BB7" s="97"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="68" t="s">
+        <v>34</v>
+      </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="68"/>
+      <c r="F8" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70">
+        <v>42909</v>
+      </c>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="57">
+        <v>42909</v>
+      </c>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="57">
+        <v>42909</v>
+      </c>
+      <c r="AD8" s="58"/>
+      <c r="AE8" s="68">
+        <v>5</v>
+      </c>
       <c r="AF8" s="68"/>
-      <c r="AG8" s="68"/>
+      <c r="AG8" s="68">
+        <v>3</v>
+      </c>
       <c r="AH8" s="68"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
+      <c r="AK8" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
+      <c r="AP8" s="111">
+        <v>42909</v>
+      </c>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="111">
+        <v>42909</v>
+      </c>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="111">
+        <v>42909</v>
+      </c>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="111">
+        <v>42909</v>
+      </c>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2456,31 +2522,31 @@
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
       <c r="AE9" s="68"/>
       <c r="AF9" s="68"/>
       <c r="AG9" s="68"/>
@@ -2496,15 +2562,15 @@
       <c r="AQ9" s="68"/>
       <c r="AR9" s="68"/>
       <c r="AS9" s="68"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="69"/>
+      <c r="AZ9" s="69"/>
+      <c r="BA9" s="69"/>
+      <c r="BB9" s="69"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2515,31 +2581,31 @@
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
       <c r="AE10" s="68"/>
       <c r="AF10" s="68"/>
       <c r="AG10" s="68"/>
@@ -2555,15 +2621,15 @@
       <c r="AQ10" s="68"/>
       <c r="AR10" s="68"/>
       <c r="AS10" s="68"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="67"/>
-      <c r="AY10" s="67"/>
-      <c r="AZ10" s="67"/>
-      <c r="BA10" s="67"/>
-      <c r="BB10" s="67"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2574,31 +2640,31 @@
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
@@ -2614,15 +2680,15 @@
       <c r="AQ11" s="68"/>
       <c r="AR11" s="68"/>
       <c r="AS11" s="68"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="67"/>
-      <c r="BA11" s="67"/>
-      <c r="BB11" s="67"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2633,31 +2699,31 @@
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
       <c r="AE12" s="68"/>
       <c r="AF12" s="68"/>
       <c r="AG12" s="68"/>
@@ -2673,15 +2739,15 @@
       <c r="AQ12" s="68"/>
       <c r="AR12" s="68"/>
       <c r="AS12" s="68"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2692,31 +2758,31 @@
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
       <c r="AE13" s="68"/>
       <c r="AF13" s="68"/>
       <c r="AG13" s="68"/>
@@ -2732,15 +2798,15 @@
       <c r="AQ13" s="68"/>
       <c r="AR13" s="68"/>
       <c r="AS13" s="68"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="70"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2751,31 +2817,31 @@
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
       <c r="AE14" s="68"/>
       <c r="AF14" s="68"/>
       <c r="AG14" s="68"/>
@@ -2791,15 +2857,15 @@
       <c r="AQ14" s="68"/>
       <c r="AR14" s="68"/>
       <c r="AS14" s="68"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="70"/>
+      <c r="AW14" s="70"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2810,31 +2876,31 @@
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
       <c r="AE15" s="68"/>
       <c r="AF15" s="68"/>
       <c r="AG15" s="68"/>
@@ -2850,15 +2916,15 @@
       <c r="AQ15" s="68"/>
       <c r="AR15" s="68"/>
       <c r="AS15" s="68"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="69"/>
+      <c r="AZ15" s="69"/>
+      <c r="BA15" s="69"/>
+      <c r="BB15" s="69"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2869,31 +2935,31 @@
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
       <c r="AE16" s="68"/>
       <c r="AF16" s="68"/>
       <c r="AG16" s="68"/>
@@ -2909,15 +2975,15 @@
       <c r="AQ16" s="68"/>
       <c r="AR16" s="68"/>
       <c r="AS16" s="68"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="AZ16" s="69"/>
+      <c r="BA16" s="69"/>
+      <c r="BB16" s="69"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2928,31 +2994,31 @@
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
       <c r="AE17" s="68"/>
       <c r="AF17" s="68"/>
       <c r="AG17" s="68"/>
@@ -2968,15 +3034,15 @@
       <c r="AQ17" s="68"/>
       <c r="AR17" s="68"/>
       <c r="AS17" s="68"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2987,31 +3053,31 @@
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
       <c r="AE18" s="68"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="68"/>
@@ -3027,15 +3093,15 @@
       <c r="AQ18" s="68"/>
       <c r="AR18" s="68"/>
       <c r="AS18" s="68"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="67"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="69"/>
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3046,31 +3112,31 @@
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
       <c r="AE19" s="68"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="68"/>
@@ -3086,15 +3152,15 @@
       <c r="AQ19" s="68"/>
       <c r="AR19" s="68"/>
       <c r="AS19" s="68"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="69"/>
+      <c r="AZ19" s="69"/>
+      <c r="BA19" s="69"/>
+      <c r="BB19" s="69"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3105,31 +3171,31 @@
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
       <c r="AE20" s="68"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="68"/>
@@ -3145,15 +3211,15 @@
       <c r="AQ20" s="68"/>
       <c r="AR20" s="68"/>
       <c r="AS20" s="68"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="67"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="70"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
+      <c r="AZ20" s="69"/>
+      <c r="BA20" s="69"/>
+      <c r="BB20" s="69"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3164,31 +3230,31 @@
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
       <c r="AE21" s="68"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="68"/>
@@ -3204,15 +3270,15 @@
       <c r="AQ21" s="68"/>
       <c r="AR21" s="68"/>
       <c r="AS21" s="68"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="69"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3223,31 +3289,31 @@
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
       <c r="AE22" s="68"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="68"/>
@@ -3263,15 +3329,15 @@
       <c r="AQ22" s="68"/>
       <c r="AR22" s="68"/>
       <c r="AS22" s="68"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="67"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="67"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
+      <c r="AZ22" s="69"/>
+      <c r="BA22" s="69"/>
+      <c r="BB22" s="69"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3282,31 +3348,31 @@
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
       <c r="AE23" s="68"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="68"/>
@@ -3322,54 +3388,54 @@
       <c r="AQ23" s="68"/>
       <c r="AR23" s="68"/>
       <c r="AS23" s="68"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="70"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="107"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="56"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3377,58 +3443,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="107"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="107"/>
-      <c r="AT24" s="93"/>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="93"/>
-      <c r="AW24" s="94"/>
-      <c r="AX24" s="90"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="91"/>
-      <c r="BA24" s="91"/>
-      <c r="BB24" s="92"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="56"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="60"/>
+      <c r="BA24" s="60"/>
+      <c r="BB24" s="61"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="107"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="56"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3436,58 +3502,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="107"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="107"/>
-      <c r="AT25" s="93"/>
-      <c r="AU25" s="94"/>
-      <c r="AV25" s="93"/>
-      <c r="AW25" s="94"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="91"/>
-      <c r="BA25" s="91"/>
-      <c r="BB25" s="92"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="58"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="58"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="60"/>
+      <c r="BA25" s="60"/>
+      <c r="BB25" s="61"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -3495,19 +3561,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="103"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="103"/>
-      <c r="AT26" s="105"/>
-      <c r="AU26" s="105"/>
-      <c r="AV26" s="105"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="104"/>
-      <c r="AY26" s="104"/>
-      <c r="AZ26" s="104"/>
-      <c r="BA26" s="104"/>
-      <c r="BB26" s="104"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="62"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4360,17 +4426,273 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="AX25:BB25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="S26:W26"/>
@@ -4395,278 +4717,22 @@
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AR24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 S7:AH26 AP7:AW26"/>
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:V2 AP1 AI7:AO26 F7:R26 AX7:BB26 AW1"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:V2 AP1 AW1 F7:R26 AX7:BB26 AI7:AO26"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0" header="0" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>クラス名</t>
   </si>
@@ -190,6 +190,83 @@
     <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>02_03</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文確定</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_04</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_05</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_07</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_08</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_09</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生(正常処理時)</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +274,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -828,7 +905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,28 +1072,120 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1031,10 +1200,85 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1043,170 +1287,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1956,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8:AW8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AV14" sqref="AV14:AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,34 +2049,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="89" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="86" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="88"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2008,62 +2089,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="86" t="s">
+      <c r="AI1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="78" t="s">
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="97" t="s">
+      <c r="AP1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98"/>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="99"/>
-      <c r="AV1" s="78" t="s">
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="97"/>
-      <c r="AX1" s="98"/>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="98"/>
-      <c r="BA1" s="98"/>
-      <c r="BB1" s="99"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="55"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="106" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109" t="s">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="108"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2076,173 +2157,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="110">
+      <c r="AI2" s="82">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="100"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="102"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="66"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="58"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="85" t="s">
+      <c r="AH4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84" t="s">
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84" t="s">
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="71" t="s">
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="77"/>
+      <c r="BB4" s="77"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72" t="s">
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72" t="s">
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72" t="s">
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72" t="s">
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72" t="s">
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="76" t="s">
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="72" t="s">
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72" t="s">
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="72"/>
+      <c r="AS5" s="69"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="72"/>
-      <c r="AY5" s="72"/>
-      <c r="AZ5" s="72"/>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="72"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="69"/>
+      <c r="BB5" s="69"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2251,50 +2332,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73" t="s">
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73" t="s">
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="73"/>
+      <c r="AH6" s="70"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2316,27 +2397,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="73" t="s">
+      <c r="AP6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="73" t="s">
+      <c r="AQ6" s="70"/>
+      <c r="AR6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73" t="s">
+      <c r="AS6" s="70"/>
+      <c r="AT6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="73" t="s">
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="73"/>
+      <c r="AW6" s="70"/>
+      <c r="AX6" s="70"/>
+      <c r="AY6" s="70"/>
+      <c r="AZ6" s="70"/>
+      <c r="BA6" s="70"/>
+      <c r="BB6" s="70"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2348,55 +2429,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="80" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="74">
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="71">
         <v>42909</v>
       </c>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74">
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71">
         <v>42909</v>
       </c>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74">
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71">
         <v>42909</v>
       </c>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="75">
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="72">
         <v>5</v>
       </c>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75">
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72">
         <v>3</v>
       </c>
-      <c r="AH7" s="75"/>
+      <c r="AH7" s="72"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38" t="s">
@@ -2406,27 +2487,27 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="74">
+      <c r="AP7" s="71">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74">
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71">
         <v>42909</v>
       </c>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74">
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71">
         <v>42909</v>
       </c>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74">
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71">
         <v>42909</v>
       </c>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
+      <c r="AW7" s="71"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2439,41 +2520,41 @@
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="69" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70">
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="73">
         <v>42909</v>
       </c>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="57">
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="88">
         <v>42909</v>
       </c>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="57">
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="88">
         <v>42909</v>
       </c>
-      <c r="AD8" s="58"/>
+      <c r="AD8" s="89"/>
       <c r="AE8" s="68">
         <v>5</v>
       </c>
@@ -2491,180 +2572,234 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="111">
+      <c r="AP8" s="74">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="111">
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="74">
         <v>42909</v>
       </c>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="111">
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="74">
         <v>42909</v>
       </c>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="111">
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="74">
         <v>42909</v>
       </c>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="68" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
       <c r="E9" s="68"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="68"/>
+      <c r="F9" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="88">
+        <v>42909</v>
+      </c>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="68">
+        <v>5</v>
+      </c>
       <c r="AF9" s="68"/>
-      <c r="AG9" s="68"/>
+      <c r="AG9" s="68">
+        <v>3</v>
+      </c>
       <c r="AH9" s="68"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
+      <c r="AK9" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="68"/>
-      <c r="AQ9" s="68"/>
-      <c r="AR9" s="68"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
-      <c r="BB9" s="69"/>
+      <c r="AP9" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AW9" s="113"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="68" t="s">
+        <v>42</v>
+      </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="68"/>
+      <c r="F10" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="73">
+        <v>42909</v>
+      </c>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="68">
+        <v>5</v>
+      </c>
       <c r="AF10" s="68"/>
-      <c r="AG10" s="68"/>
+      <c r="AG10" s="68">
+        <v>3</v>
+      </c>
       <c r="AH10" s="68"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
+      <c r="AK10" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="68"/>
-      <c r="AS10" s="68"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
+      <c r="AP10" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="67"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="68" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
       <c r="AE11" s="68"/>
       <c r="AF11" s="68"/>
       <c r="AG11" s="68"/>
@@ -2676,54 +2811,56 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="67"/>
+      <c r="AY11" s="67"/>
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="67"/>
+      <c r="BB11" s="67"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="68" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
       <c r="AE12" s="68"/>
       <c r="AF12" s="68"/>
       <c r="AG12" s="68"/>
@@ -2735,113 +2872,141 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="68"/>
-      <c r="AQ12" s="68"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="70"/>
-      <c r="AU12" s="70"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+      <c r="BB12" s="67"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="68" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="68"/>
+      <c r="F13" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="73">
+        <v>42909</v>
+      </c>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73">
+        <v>42909</v>
+      </c>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="68">
+        <v>5</v>
+      </c>
       <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
+      <c r="AG13" s="68">
+        <v>3</v>
+      </c>
       <c r="AH13" s="68"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
+      <c r="AK13" s="41" t="s">
+        <v>51</v>
+      </c>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
+      <c r="AP13" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113">
+        <v>42909</v>
+      </c>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="67"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="67"/>
+      <c r="BB13" s="67"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="68" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
       <c r="AE14" s="68"/>
       <c r="AF14" s="68"/>
       <c r="AG14" s="68"/>
@@ -2853,54 +3018,56 @@
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="68" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
       <c r="AE15" s="68"/>
       <c r="AF15" s="68"/>
       <c r="AG15" s="68"/>
@@ -2912,54 +3079,56 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
-      <c r="BB15" s="69"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="68" t="s">
+        <v>49</v>
+      </c>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
       <c r="AE16" s="68"/>
       <c r="AF16" s="68"/>
       <c r="AG16" s="68"/>
@@ -2971,19 +3140,19 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
-      <c r="BB16" s="69"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2994,31 +3163,31 @@
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
       <c r="AE17" s="68"/>
       <c r="AF17" s="68"/>
       <c r="AG17" s="68"/>
@@ -3030,19 +3199,19 @@
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3053,31 +3222,31 @@
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
       <c r="AE18" s="68"/>
       <c r="AF18" s="68"/>
       <c r="AG18" s="68"/>
@@ -3089,19 +3258,19 @@
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="68"/>
-      <c r="AQ18" s="68"/>
-      <c r="AR18" s="68"/>
-      <c r="AS18" s="68"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
-      <c r="BB18" s="69"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="67"/>
+      <c r="AY18" s="67"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3112,31 +3281,31 @@
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
       <c r="AE19" s="68"/>
       <c r="AF19" s="68"/>
       <c r="AG19" s="68"/>
@@ -3148,19 +3317,19 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
-      <c r="BB19" s="69"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="67"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3171,31 +3340,31 @@
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
       <c r="AE20" s="68"/>
       <c r="AF20" s="68"/>
       <c r="AG20" s="68"/>
@@ -3207,19 +3376,19 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
-      <c r="BB20" s="69"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="67"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3230,31 +3399,31 @@
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
       <c r="AE21" s="68"/>
       <c r="AF21" s="68"/>
       <c r="AG21" s="68"/>
@@ -3266,19 +3435,19 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="68"/>
-      <c r="AR21" s="68"/>
-      <c r="AS21" s="68"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
-      <c r="BB21" s="69"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="67"/>
+      <c r="AY21" s="67"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3289,31 +3458,31 @@
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
       <c r="AE22" s="68"/>
       <c r="AF22" s="68"/>
       <c r="AG22" s="68"/>
@@ -3325,19 +3494,19 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
-      <c r="BB22" s="69"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="113"/>
+      <c r="AS22" s="113"/>
+      <c r="AT22" s="113"/>
+      <c r="AU22" s="113"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="67"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3348,31 +3517,31 @@
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
       <c r="AE23" s="68"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="68"/>
@@ -3384,58 +3553,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="113"/>
+      <c r="AS23" s="113"/>
+      <c r="AT23" s="113"/>
+      <c r="AU23" s="113"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="67"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="58"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="58"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="56"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="109"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="110"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3443,58 +3612,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="57"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="59"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="60"/>
-      <c r="BB24" s="61"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="113"/>
+      <c r="AS24" s="113"/>
+      <c r="AT24" s="113"/>
+      <c r="AU24" s="113"/>
+      <c r="AV24" s="113"/>
+      <c r="AW24" s="113"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="86"/>
+      <c r="AZ24" s="86"/>
+      <c r="BA24" s="86"/>
+      <c r="BB24" s="87"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="56"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="109"/>
+      <c r="AH25" s="110"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3502,58 +3671,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="58"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="58"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="60"/>
-      <c r="AZ25" s="60"/>
-      <c r="BA25" s="60"/>
-      <c r="BB25" s="61"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="113"/>
+      <c r="AS25" s="113"/>
+      <c r="AT25" s="113"/>
+      <c r="AU25" s="113"/>
+      <c r="AV25" s="113"/>
+      <c r="AW25" s="113"/>
+      <c r="AX25" s="85"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="86"/>
+      <c r="BB25" s="87"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="108"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -3561,19 +3730,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
+      <c r="AP26" s="113"/>
+      <c r="AQ26" s="113"/>
+      <c r="AR26" s="113"/>
+      <c r="AS26" s="113"/>
+      <c r="AT26" s="113"/>
+      <c r="AU26" s="113"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="107"/>
+      <c r="AY26" s="107"/>
+      <c r="AZ26" s="107"/>
+      <c r="BA26" s="107"/>
+      <c r="BB26" s="107"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4426,6 +4595,284 @@
     </row>
   </sheetData>
   <mergeCells count="302">
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AX26:BB26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="AW1:BB2"/>
     <mergeCell ref="AP1:AU2"/>
     <mergeCell ref="F26:R26"/>
@@ -4450,284 +4897,6 @@
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AX25:BB25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>クラス名</t>
   </si>
@@ -240,14 +240,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>02_09</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>02_10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー発生(正常処理時)</t>
     <rPh sb="3" eb="5">
       <t>ハッセイ</t>
@@ -1072,6 +1064,175 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,64 +1263,6 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1178,117 +1281,6 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2030,7 @@
   <dimension ref="A1:BH165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AV14" sqref="AV14:AW14"/>
+      <selection activeCell="AC16" sqref="AC16:AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2049,34 +2041,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="98" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="95" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="97"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2089,62 +2081,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="95" t="s">
+      <c r="AI1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="65" t="s">
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="53" t="s">
+      <c r="AP1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="65" t="s">
+      <c r="AQ1" s="101"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="54"/>
-      <c r="BB1" s="55"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="101"/>
+      <c r="AY1" s="101"/>
+      <c r="AZ1" s="101"/>
+      <c r="BA1" s="101"/>
+      <c r="BB1" s="102"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="78" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="111"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2157,173 +2149,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="82">
+      <c r="AI2" s="113">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="57"/>
-      <c r="AR2" s="57"/>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="58"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="105"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AH4" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93" t="s">
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93" t="s">
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="77" t="s">
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69" t="s">
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69" t="s">
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69" t="s">
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69" t="s">
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="105" t="s">
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="69" t="s">
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69" t="s">
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="69"/>
+      <c r="AS5" s="75"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
-      <c r="BB5" s="69"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2332,50 +2324,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70" t="s">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70" t="s">
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="70"/>
+      <c r="AH6" s="76"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2397,27 +2389,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="70" t="s">
+      <c r="AP6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="70"/>
-      <c r="AR6" s="70" t="s">
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="70"/>
-      <c r="AT6" s="70" t="s">
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70" t="s">
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2429,55 +2421,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="90" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="84" t="s">
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="71">
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="77">
         <v>42909</v>
       </c>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71">
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77">
         <v>42909</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71">
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77">
         <v>42909</v>
       </c>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="72">
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="78">
         <v>5</v>
       </c>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72">
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78">
         <v>3</v>
       </c>
-      <c r="AH7" s="72"/>
+      <c r="AH7" s="78"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38" t="s">
@@ -2487,82 +2479,82 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="71">
+      <c r="AP7" s="77">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="71">
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77">
         <v>42909</v>
       </c>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71">
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77">
         <v>42909</v>
       </c>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71">
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77">
         <v>42909</v>
       </c>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="62" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="67" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="73">
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="71">
         <v>42909</v>
       </c>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="88">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="63">
         <v>42909</v>
       </c>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="88">
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="63">
         <v>42909</v>
       </c>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="68">
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="69">
         <v>5</v>
       </c>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68">
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69">
         <v>3</v>
       </c>
-      <c r="AH8" s="68"/>
+      <c r="AH8" s="69"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41"/>
       <c r="AK8" s="41" t="s">
@@ -2572,82 +2564,82 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="74">
+      <c r="AP8" s="72">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="74">
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="72">
         <v>42909</v>
       </c>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="74">
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="72">
         <v>42909</v>
       </c>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="74">
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="72">
         <v>42909</v>
       </c>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="62" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="67" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="88">
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="63">
         <v>42909</v>
       </c>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="73">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="71">
         <v>42909</v>
       </c>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73">
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71">
         <v>42909</v>
       </c>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="68">
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="69">
         <v>5</v>
       </c>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68">
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69">
         <v>3</v>
       </c>
-      <c r="AH9" s="68"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="41" t="s">
@@ -2657,82 +2649,82 @@
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="113">
+      <c r="AP9" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113">
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53">
         <v>42909</v>
       </c>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113">
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53">
         <v>42909</v>
       </c>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="113">
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53">
         <v>42909</v>
       </c>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="62" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="67" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="73">
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="71">
         <v>42909</v>
       </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73">
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71">
         <v>42909</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73">
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71">
         <v>42909</v>
       </c>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="68">
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="69">
         <v>5</v>
       </c>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68">
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69">
         <v>3</v>
       </c>
-      <c r="AH10" s="68"/>
+      <c r="AH10" s="69"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="41" t="s">
@@ -2742,68 +2734,68 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="113">
+      <c r="AP10" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113">
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53">
         <v>42909</v>
       </c>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113">
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53">
         <v>42909</v>
       </c>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113">
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53">
         <v>42909</v>
       </c>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="67"/>
-      <c r="AY10" s="67"/>
-      <c r="AZ10" s="67"/>
-      <c r="BA10" s="67"/>
-      <c r="BB10" s="67"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="41"/>
@@ -2811,60 +2803,60 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="113"/>
-      <c r="AR11" s="113"/>
-      <c r="AS11" s="113"/>
-      <c r="AT11" s="113"/>
-      <c r="AU11" s="113"/>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="67"/>
-      <c r="BA11" s="67"/>
-      <c r="BB11" s="67"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="41"/>
@@ -2872,206 +2864,204 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="73">
-        <v>42909</v>
-      </c>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73">
-        <v>42909</v>
-      </c>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73">
-        <v>42909</v>
-      </c>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="68">
-        <v>5</v>
-      </c>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68">
-        <v>3</v>
-      </c>
-      <c r="AH13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41"/>
-      <c r="AK13" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="AK13" s="41"/>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="113">
-        <v>42909</v>
-      </c>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113">
-        <v>42909</v>
-      </c>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113">
-        <v>42909</v>
-      </c>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113">
-        <v>42909</v>
-      </c>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="71">
+        <v>42909</v>
+      </c>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="69"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
+      <c r="AK14" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="AL14" s="41"/>
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
+      <c r="AP14" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="69"/>
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69"/>
+      <c r="AH15" s="69"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="41"/>
       <c r="AK15" s="41"/>
@@ -3079,60 +3069,58 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
+      <c r="AP15" s="53"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53"/>
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="68"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="69"/>
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69"/>
+      <c r="AH16" s="69"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="41"/>
       <c r="AK16" s="41"/>
@@ -3140,58 +3128,58 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="67"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69"/>
+      <c r="AH17" s="69"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="41"/>
       <c r="AK17" s="41"/>
@@ -3199,58 +3187,58 @@
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="68"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41"/>
       <c r="AK18" s="41"/>
@@ -3258,58 +3246,58 @@
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="67"/>
-      <c r="AY18" s="67"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
+      <c r="AP18" s="53"/>
+      <c r="AQ18" s="53"/>
+      <c r="AR18" s="53"/>
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53"/>
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69"/>
+      <c r="AH19" s="69"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41"/>
       <c r="AK19" s="41"/>
@@ -3317,58 +3305,58 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="67"/>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
@@ -3376,58 +3364,58 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="67"/>
-      <c r="AY20" s="67"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
@@ -3435,58 +3423,58 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="113"/>
-      <c r="AS21" s="113"/>
-      <c r="AT21" s="113"/>
-      <c r="AU21" s="113"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="67"/>
-      <c r="AY21" s="67"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
@@ -3494,58 +3482,58 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="113"/>
-      <c r="AS22" s="113"/>
-      <c r="AT22" s="113"/>
-      <c r="AU22" s="113"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="67"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="67"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
@@ -3553,58 +3541,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="113"/>
-      <c r="AS23" s="113"/>
-      <c r="AT23" s="113"/>
-      <c r="AU23" s="113"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="67"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="112"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="109"/>
-      <c r="AF24" s="110"/>
-      <c r="AG24" s="109"/>
-      <c r="AH24" s="110"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="61"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3612,58 +3600,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="113"/>
-      <c r="AS24" s="113"/>
-      <c r="AT24" s="113"/>
-      <c r="AU24" s="113"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="86"/>
-      <c r="AZ24" s="86"/>
-      <c r="BA24" s="86"/>
-      <c r="BB24" s="87"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="58"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="110"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="110"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3671,58 +3659,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
-      <c r="AR25" s="113"/>
-      <c r="AS25" s="113"/>
-      <c r="AT25" s="113"/>
-      <c r="AU25" s="113"/>
-      <c r="AV25" s="113"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="85"/>
-      <c r="AY25" s="86"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="87"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="58"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="108"/>
-      <c r="Y26" s="108"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="108"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -3730,19 +3718,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="113"/>
-      <c r="AQ26" s="113"/>
-      <c r="AR26" s="113"/>
-      <c r="AS26" s="113"/>
-      <c r="AT26" s="113"/>
-      <c r="AU26" s="113"/>
-      <c r="AV26" s="113"/>
-      <c r="AW26" s="113"/>
-      <c r="AX26" s="107"/>
-      <c r="AY26" s="107"/>
-      <c r="AZ26" s="107"/>
-      <c r="BA26" s="107"/>
-      <c r="BB26" s="107"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4595,17 +4583,273 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AX25:BB25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="S26:W26"/>
@@ -4630,273 +4874,17 @@
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AR24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>クラス名</t>
   </si>
@@ -257,6 +257,69 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_09</t>
+  </si>
+  <si>
+    <t>02_10</t>
+  </si>
+  <si>
+    <t>02_11</t>
+  </si>
+  <si>
+    <t>02_12</t>
+  </si>
+  <si>
+    <t>遷移異常</t>
+    <rPh sb="0" eb="2">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文取消</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベース更新異常</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入決済</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1064,34 +1127,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1102,185 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2030,7 +2093,7 @@
   <dimension ref="A1:BH165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16:AD16"/>
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2041,34 +2104,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="92" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="89" t="s">
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="91"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2081,62 +2144,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="89" t="s">
+      <c r="AI1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="91"/>
-      <c r="AO1" s="81" t="s">
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="100" t="s">
+      <c r="AP1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="101"/>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="81" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="101"/>
-      <c r="AY1" s="101"/>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="102"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="56"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="96"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="109" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="112" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="111"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="81"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2149,173 +2212,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="113">
+      <c r="AI2" s="83">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="105"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="59"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="88" t="s">
+      <c r="AH4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87" t="s">
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87" t="s">
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="94"/>
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="74" t="s">
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75" t="s">
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75" t="s">
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75" t="s">
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75" t="s">
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75" t="s">
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="79" t="s">
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="75" t="s">
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75" t="s">
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="75"/>
+      <c r="AS5" s="70"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
+      <c r="AX5" s="70"/>
+      <c r="AY5" s="70"/>
+      <c r="AZ5" s="70"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2324,50 +2387,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76" t="s">
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76" t="s">
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76" t="s">
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76" t="s">
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="76"/>
+      <c r="AH6" s="71"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2389,27 +2452,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="76" t="s">
+      <c r="AP6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76" t="s">
+      <c r="AQ6" s="71"/>
+      <c r="AR6" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76" t="s">
+      <c r="AS6" s="71"/>
+      <c r="AT6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76" t="s">
+      <c r="AU6" s="71"/>
+      <c r="AV6" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
+      <c r="AW6" s="71"/>
+      <c r="AX6" s="71"/>
+      <c r="AY6" s="71"/>
+      <c r="AZ6" s="71"/>
+      <c r="BA6" s="71"/>
+      <c r="BB6" s="71"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2421,55 +2484,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="83" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="86" t="s">
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="77">
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="72">
         <v>42909</v>
       </c>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77">
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72">
         <v>42909</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77">
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72">
         <v>42909</v>
       </c>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="78">
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="73">
         <v>5</v>
       </c>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78">
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73">
         <v>3</v>
       </c>
-      <c r="AH7" s="78"/>
+      <c r="AH7" s="73"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="38" t="s">
@@ -2479,82 +2542,82 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="77">
+      <c r="AP7" s="72">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77">
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72">
         <v>42909</v>
       </c>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77">
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72">
         <v>42909</v>
       </c>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77">
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72">
         <v>42909</v>
       </c>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="86"/>
-      <c r="AY7" s="86"/>
-      <c r="AZ7" s="86"/>
-      <c r="BA7" s="86"/>
-      <c r="BB7" s="86"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="85"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="70" t="s">
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71">
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="74">
         <v>42909</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="63">
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="89">
         <v>42909</v>
       </c>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="63">
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="89">
         <v>42909</v>
       </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="69">
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="68">
         <v>5</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69">
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68">
         <v>3</v>
       </c>
-      <c r="AH8" s="69"/>
+      <c r="AH8" s="68"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41"/>
       <c r="AK8" s="41" t="s">
@@ -2564,82 +2627,82 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="72">
+      <c r="AP8" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="72">
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="75">
         <v>42909</v>
       </c>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="72">
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="75">
         <v>42909</v>
       </c>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="72">
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="75">
         <v>42909</v>
       </c>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="70" t="s">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="63">
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="89">
         <v>42909</v>
       </c>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="71">
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="74">
         <v>42909</v>
       </c>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71">
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74">
         <v>42909</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="69">
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="68">
         <v>5</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69">
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68">
         <v>3</v>
       </c>
-      <c r="AH9" s="69"/>
+      <c r="AH9" s="68"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41"/>
       <c r="AK9" s="41" t="s">
@@ -2649,82 +2712,82 @@
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="53">
+      <c r="AP9" s="69">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53">
+      <c r="AQ9" s="69"/>
+      <c r="AR9" s="69">
         <v>42909</v>
       </c>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53">
+      <c r="AS9" s="69"/>
+      <c r="AT9" s="69">
         <v>42909</v>
       </c>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53">
+      <c r="AU9" s="69"/>
+      <c r="AV9" s="69">
         <v>42909</v>
       </c>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="70" t="s">
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71">
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="74">
         <v>42909</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71">
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74">
         <v>42909</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71">
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74">
         <v>42909</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="69">
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="68">
         <v>5</v>
       </c>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69">
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68">
         <v>3</v>
       </c>
-      <c r="AH10" s="69"/>
+      <c r="AH10" s="68"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41"/>
       <c r="AK10" s="41" t="s">
@@ -2734,68 +2797,68 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="53">
+      <c r="AP10" s="69">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53">
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69">
         <v>42909</v>
       </c>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53">
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69">
         <v>42909</v>
       </c>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53">
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69">
         <v>42909</v>
       </c>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41"/>
       <c r="AK11" s="41"/>
@@ -2803,60 +2866,60 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="41"/>
       <c r="AK12" s="41"/>
@@ -2864,60 +2927,60 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="53"/>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53"/>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53"/>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53"/>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41"/>
       <c r="AK13" s="41"/>
@@ -2925,74 +2988,74 @@
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="70" t="s">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="71">
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="74">
         <v>42909</v>
       </c>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71">
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74">
         <v>42909</v>
       </c>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71">
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74">
         <v>42909</v>
       </c>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="69">
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="68">
         <v>5</v>
       </c>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69">
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68">
         <v>3</v>
       </c>
-      <c r="AH14" s="69"/>
+      <c r="AH14" s="68"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="41"/>
       <c r="AK14" s="41" t="s">
@@ -3002,302 +3065,406 @@
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="53">
+      <c r="AP14" s="69">
         <v>42909</v>
       </c>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53">
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69">
         <v>42909</v>
       </c>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53">
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69">
         <v>42909</v>
       </c>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53">
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69">
         <v>42909</v>
       </c>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
+      <c r="BB14" s="53"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
+      <c r="B15" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="74">
+        <v>42912</v>
+      </c>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="68">
+        <v>5</v>
+      </c>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="68"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
+      <c r="AK15" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="AL15" s="41"/>
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53"/>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
+      <c r="AP15" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AQ15" s="69"/>
+      <c r="AR15" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AS15" s="69"/>
+      <c r="AT15" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
+      <c r="BB15" s="53"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
+      <c r="B16" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="74">
+        <v>42912</v>
+      </c>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="68">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="68"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
+      <c r="AK16" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
+      <c r="AP16" s="75">
+        <v>42912</v>
+      </c>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AU16" s="69"/>
+      <c r="AV16" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
+      <c r="BB16" s="53"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
+      <c r="B17" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="74">
+        <v>42912</v>
+      </c>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="68">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68">
+        <v>3</v>
+      </c>
+      <c r="AH17" s="68"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
+      <c r="AK17" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
+      <c r="AP17" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AQ17" s="69"/>
+      <c r="AR17" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
+      <c r="B18" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="74">
+        <v>42912</v>
+      </c>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74">
+        <v>42912</v>
+      </c>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="68">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="68"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
+      <c r="AK18" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="53"/>
-      <c r="AQ18" s="53"/>
-      <c r="AR18" s="53"/>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53"/>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53"/>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
+      <c r="AP18" s="75">
+        <v>42912</v>
+      </c>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AS18" s="69"/>
+      <c r="AT18" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AU18" s="69"/>
+      <c r="AV18" s="69">
+        <v>42912</v>
+      </c>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="53"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="53"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="53"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41"/>
       <c r="AK19" s="41"/>
@@ -3305,58 +3472,58 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
+      <c r="AP19" s="69"/>
+      <c r="AQ19" s="69"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="69"/>
+      <c r="AT19" s="69"/>
+      <c r="AU19" s="69"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
+      <c r="BA19" s="53"/>
+      <c r="BB19" s="53"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
@@ -3364,58 +3531,58 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="53"/>
+      <c r="BA20" s="53"/>
+      <c r="BB20" s="53"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
@@ -3423,58 +3590,58 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
+      <c r="AP21" s="69"/>
+      <c r="AQ21" s="69"/>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="53"/>
+      <c r="BA21" s="53"/>
+      <c r="BB21" s="53"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
@@ -3482,58 +3649,58 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="53"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="53"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
@@ -3541,58 +3708,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="70"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="69"/>
+      <c r="AT23" s="69"/>
+      <c r="AU23" s="69"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="53"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="53"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="112"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3600,58 +3767,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="57"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="57"/>
-      <c r="BB24" s="58"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="86"/>
+      <c r="AY24" s="87"/>
+      <c r="AZ24" s="87"/>
+      <c r="BA24" s="87"/>
+      <c r="BB24" s="88"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="112"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3659,58 +3826,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="58"/>
+      <c r="AP25" s="69"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="69"/>
+      <c r="AS25" s="69"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="69"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="87"/>
+      <c r="BA25" s="87"/>
+      <c r="BB25" s="88"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="108"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -3718,19 +3885,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
+      <c r="AP26" s="69"/>
+      <c r="AQ26" s="69"/>
+      <c r="AR26" s="69"/>
+      <c r="AS26" s="69"/>
+      <c r="AT26" s="69"/>
+      <c r="AU26" s="69"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="109"/>
+      <c r="AY26" s="109"/>
+      <c r="AZ26" s="109"/>
+      <c r="BA26" s="109"/>
+      <c r="BB26" s="109"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4583,6 +4750,284 @@
     </row>
   </sheetData>
   <mergeCells count="302">
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AX26:BB26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AX13:BB13"/>
     <mergeCell ref="AW1:BB2"/>
     <mergeCell ref="AP1:AU2"/>
@@ -4607,288 +5052,10 @@
     <mergeCell ref="G4:R4"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AX25:BB25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 S7:AH26 AP7:AW26"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 AP7:AW26 S7:AH26"/>
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:V2 AP1 AW1 F7:R26 AX7:BB26 AI7:AO26"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0" header="0" footer="0.39370078740157483"/>

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>クラス名</t>
   </si>
@@ -320,6 +320,41 @@
     <rPh sb="2" eb="4">
       <t>ケッサイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_13</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1127,10 +1162,187 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,189 +1373,12 @@
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2090,10 +2125,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BH165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AK19" sqref="AK19"/>
+      <selection activeCell="AX18" sqref="AX18:BB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2104,34 +2142,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="96" t="s">
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="98"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2144,62 +2182,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="96" t="s">
+      <c r="AI1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="66" t="s">
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="54" t="s">
+      <c r="AP1" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="66" t="s">
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="105"/>
+      <c r="AV1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="56"/>
+      <c r="AW1" s="103"/>
+      <c r="AX1" s="104"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="105"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="79" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="81"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="100"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2212,173 +2250,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="83">
+      <c r="AI2" s="98">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="59"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="106"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="106"/>
+      <c r="AX2" s="107"/>
+      <c r="AY2" s="107"/>
+      <c r="AZ2" s="107"/>
+      <c r="BA2" s="107"/>
+      <c r="BB2" s="108"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="95" t="s">
+      <c r="AH4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94" t="s">
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94" t="s">
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="78" t="s">
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="78"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70" t="s">
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70" t="s">
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70" t="s">
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70" t="s">
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="106" t="s">
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="70" t="s">
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="70" t="s">
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="70"/>
+      <c r="AS5" s="75"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2387,50 +2425,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71" t="s">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71" t="s">
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="71"/>
+      <c r="AH6" s="76"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2452,27 +2490,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="71" t="s">
+      <c r="AP6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="71" t="s">
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="71"/>
-      <c r="AT6" s="71" t="s">
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="71"/>
-      <c r="AV6" s="71" t="s">
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="71"/>
-      <c r="AX6" s="71"/>
-      <c r="AY6" s="71"/>
-      <c r="AZ6" s="71"/>
-      <c r="BA6" s="71"/>
-      <c r="BB6" s="71"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2484,27 +2522,27 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="91" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="93"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="84"/>
       <c r="S7" s="85" t="s">
         <v>33</v>
       </c>
@@ -2512,52 +2550,52 @@
       <c r="U7" s="85"/>
       <c r="V7" s="85"/>
       <c r="W7" s="85"/>
-      <c r="X7" s="72">
+      <c r="X7" s="77">
         <v>42909</v>
       </c>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72">
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77">
         <v>42909</v>
       </c>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72">
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77">
         <v>42909</v>
       </c>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="73">
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="78">
         <v>5</v>
       </c>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73">
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78">
         <v>3</v>
       </c>
-      <c r="AH7" s="73"/>
+      <c r="AH7" s="78"/>
       <c r="AI7" s="37"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>37</v>
       </c>
+      <c r="AK7" s="38"/>
       <c r="AL7" s="38"/>
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="72">
+      <c r="AP7" s="77">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72">
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77">
         <v>42909</v>
       </c>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72">
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77">
         <v>42909</v>
       </c>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72">
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77">
         <v>42909</v>
       </c>
-      <c r="AW7" s="72"/>
+      <c r="AW7" s="77"/>
       <c r="AX7" s="85"/>
       <c r="AY7" s="85"/>
       <c r="AZ7" s="85"/>
@@ -2569,961 +2607,1059 @@
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="63" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="53" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="74">
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="71">
         <v>42909</v>
       </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="89">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="63">
         <v>42909</v>
       </c>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="89">
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="63">
         <v>42909</v>
       </c>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="68">
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="69">
         <v>5</v>
       </c>
-      <c r="AF8" s="68"/>
-      <c r="AG8" s="68">
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69">
         <v>3</v>
       </c>
-      <c r="AH8" s="68"/>
+      <c r="AH8" s="69"/>
       <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41" t="s">
+      <c r="AJ8" s="41" t="s">
         <v>37</v>
       </c>
+      <c r="AK8" s="41"/>
       <c r="AL8" s="41"/>
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="75">
+      <c r="AP8" s="72">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="75">
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="72">
         <v>42909</v>
       </c>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="75">
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="72">
         <v>42909</v>
       </c>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="75">
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="72">
         <v>42909</v>
       </c>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="53"/>
-      <c r="BA8" s="53"/>
-      <c r="BB8" s="53"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="63" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="53" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="89">
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="63">
         <v>42909</v>
       </c>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="74">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="71">
         <v>42909</v>
       </c>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74">
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71">
         <v>42909</v>
       </c>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="68">
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="69">
         <v>5</v>
       </c>
-      <c r="AF9" s="68"/>
-      <c r="AG9" s="68">
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69">
         <v>3</v>
       </c>
-      <c r="AH9" s="68"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="40"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41" t="s">
+      <c r="AJ9" s="41" t="s">
         <v>41</v>
       </c>
+      <c r="AK9" s="41"/>
       <c r="AL9" s="41"/>
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="69">
+      <c r="AP9" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69">
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53">
         <v>42909</v>
       </c>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69">
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53">
         <v>42909</v>
       </c>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69">
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53">
         <v>42909</v>
       </c>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="63" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="53" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="74">
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="71">
         <v>42909</v>
       </c>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74">
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71">
         <v>42909</v>
       </c>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74">
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71">
         <v>42909</v>
       </c>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="68">
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="69">
         <v>5</v>
       </c>
-      <c r="AF10" s="68"/>
-      <c r="AG10" s="68">
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69">
         <v>3</v>
       </c>
-      <c r="AH10" s="68"/>
+      <c r="AH10" s="69"/>
       <c r="AI10" s="40"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41" t="s">
+      <c r="AJ10" s="41" t="s">
         <v>43</v>
       </c>
+      <c r="AK10" s="41"/>
       <c r="AL10" s="41"/>
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="69">
+      <c r="AP10" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69">
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53">
         <v>42909</v>
       </c>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69">
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53">
         <v>42909</v>
       </c>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69">
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53">
         <v>42909</v>
       </c>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="71">
+        <v>42909</v>
+      </c>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="69"/>
       <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
+      <c r="AJ11" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="AK11" s="41"/>
       <c r="AL11" s="41"/>
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
+      <c r="AP11" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="74"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="74"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="68"/>
-      <c r="AH12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71">
+        <v>42909</v>
+      </c>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="69"/>
       <c r="AI12" s="40"/>
-      <c r="AJ12" s="41"/>
+      <c r="AJ12" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="AK12" s="41"/>
       <c r="AL12" s="41"/>
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="53"/>
-      <c r="BA12" s="53"/>
-      <c r="BB12" s="53"/>
+      <c r="AP12" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-      <c r="AA13" s="74"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="71">
+        <v>42909</v>
+      </c>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71">
+        <v>42909</v>
+      </c>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="69"/>
       <c r="AI13" s="40"/>
-      <c r="AJ13" s="41"/>
+      <c r="AJ13" s="41" t="s">
+        <v>62</v>
+      </c>
       <c r="AK13" s="41"/>
       <c r="AL13" s="41"/>
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="53"/>
-      <c r="BA13" s="53"/>
-      <c r="BB13" s="53"/>
+      <c r="AP13" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53">
+        <v>42909</v>
+      </c>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="53" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="74">
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="71">
         <v>42909</v>
       </c>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="74">
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71">
         <v>42909</v>
       </c>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74">
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71">
         <v>42909</v>
       </c>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="68">
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="69">
         <v>5</v>
       </c>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68">
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69">
         <v>3</v>
       </c>
-      <c r="AH14" s="68"/>
+      <c r="AH14" s="69"/>
       <c r="AI14" s="40"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41" t="s">
+      <c r="AJ14" s="41" t="s">
         <v>49</v>
       </c>
+      <c r="AK14" s="41"/>
       <c r="AL14" s="41"/>
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="69">
+      <c r="AP14" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69">
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53">
         <v>42909</v>
       </c>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69">
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53">
         <v>42909</v>
       </c>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69">
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53">
         <v>42909</v>
       </c>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="63" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="53" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="74">
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="71">
         <v>42912</v>
       </c>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74">
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71">
         <v>42912</v>
       </c>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74">
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71">
         <v>42912</v>
       </c>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="68">
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="69">
         <v>5</v>
       </c>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68">
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69">
         <v>3</v>
       </c>
-      <c r="AH15" s="68"/>
+      <c r="AH15" s="69"/>
       <c r="AI15" s="40"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41" t="s">
+      <c r="AJ15" s="41" t="s">
         <v>41</v>
       </c>
+      <c r="AK15" s="41"/>
       <c r="AL15" s="41"/>
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="69">
+      <c r="AP15" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69">
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53">
         <v>42912</v>
       </c>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69">
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53">
         <v>42912</v>
       </c>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69">
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53">
         <v>42912</v>
       </c>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="53"/>
-      <c r="AY15" s="53"/>
-      <c r="AZ15" s="53"/>
-      <c r="BA15" s="53"/>
-      <c r="BB15" s="53"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="63" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="53" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="74">
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71">
         <v>42912</v>
       </c>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="74">
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71">
         <v>42912</v>
       </c>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74">
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71">
         <v>42912</v>
       </c>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="68">
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="69">
         <v>3</v>
       </c>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68">
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69">
         <v>3</v>
       </c>
-      <c r="AH16" s="68"/>
+      <c r="AH16" s="69"/>
       <c r="AI16" s="40"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41" t="s">
+      <c r="AJ16" s="41" t="s">
         <v>56</v>
       </c>
+      <c r="AK16" s="41"/>
       <c r="AL16" s="41"/>
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="75">
+      <c r="AP16" s="72">
         <v>42912</v>
       </c>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="69">
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="53">
         <v>42912</v>
       </c>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69">
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53">
         <v>42912</v>
       </c>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69">
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53">
         <v>42912</v>
       </c>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="53"/>
-      <c r="BA16" s="53"/>
-      <c r="BB16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="63" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="53" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="74">
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="71">
         <v>42912</v>
       </c>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
-      <c r="AA17" s="74">
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71">
         <v>42912</v>
       </c>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74">
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71">
         <v>42912</v>
       </c>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="68">
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="69">
         <v>5</v>
       </c>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68">
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69">
         <v>3</v>
       </c>
-      <c r="AH17" s="68"/>
+      <c r="AH17" s="69"/>
       <c r="AI17" s="40"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41" t="s">
+      <c r="AJ17" s="41" t="s">
         <v>41</v>
       </c>
+      <c r="AK17" s="41"/>
       <c r="AL17" s="41"/>
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="69">
+      <c r="AP17" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69">
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53">
         <v>42912</v>
       </c>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69">
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53">
         <v>42912</v>
       </c>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69">
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53">
         <v>42912</v>
       </c>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="63" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="53" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="74">
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71">
         <v>42912</v>
       </c>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="74">
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71">
         <v>42912</v>
       </c>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74">
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71">
         <v>42912</v>
       </c>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="68">
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="69">
         <v>5</v>
       </c>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68">
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69">
         <v>3</v>
       </c>
-      <c r="AH18" s="68"/>
+      <c r="AH18" s="69"/>
       <c r="AI18" s="40"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41" t="s">
+      <c r="AJ18" s="41" t="s">
         <v>41</v>
       </c>
+      <c r="AK18" s="41"/>
       <c r="AL18" s="41"/>
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="75">
+      <c r="AP18" s="72">
         <v>42912</v>
       </c>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="69">
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="53">
         <v>42912</v>
       </c>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69">
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53">
         <v>42912</v>
       </c>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69">
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53">
         <v>42912</v>
       </c>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="53"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
-      <c r="BA18" s="53"/>
-      <c r="BB18" s="53"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="74"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
+      <c r="B19" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71">
+        <v>42912</v>
+      </c>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71">
+        <v>42912</v>
+      </c>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71">
+        <v>42912</v>
+      </c>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="69"/>
       <c r="AI19" s="40"/>
-      <c r="AJ19" s="41"/>
+      <c r="AJ19" s="41" t="s">
+        <v>41</v>
+      </c>
       <c r="AK19" s="41"/>
       <c r="AL19" s="41"/>
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="53"/>
-      <c r="BA19" s="53"/>
-      <c r="BB19" s="53"/>
+      <c r="AP19" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53">
+        <v>42912</v>
+      </c>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="69"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41"/>
       <c r="AK20" s="41"/>
@@ -3531,58 +3667,58 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="53"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="53"/>
-      <c r="BA20" s="53"/>
-      <c r="BB20" s="53"/>
+      <c r="AP20" s="53"/>
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53"/>
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53"/>
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="65"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69"/>
+      <c r="AH21" s="69"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
@@ -3590,58 +3726,58 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="53"/>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
@@ -3649,58 +3785,58 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
@@ -3708,58 +3844,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="53"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="53"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="112"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="61"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3767,58 +3903,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="86"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="87"/>
-      <c r="BA24" s="87"/>
-      <c r="BB24" s="88"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="58"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="65"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="112"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3826,58 +3962,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="86"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="87"/>
-      <c r="BA25" s="87"/>
-      <c r="BB25" s="88"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="58"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -3885,19 +4021,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="109"/>
-      <c r="AY26" s="109"/>
-      <c r="AZ26" s="109"/>
-      <c r="BA26" s="109"/>
-      <c r="BB26" s="109"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4750,17 +4886,273 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AX25:BB25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="S26:W26"/>
@@ -4785,281 +5177,25 @@
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AR24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 AP7:AW26 S7:AH26"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:E26 K2:P2 AI2:AN2 S7:AH26 AP7:AW26"/>
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:V2 AP1 AW1 F7:R26 AX7:BB26 AI7:AO26"/>
   </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0" header="0" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Arial,標準"&amp;8©&amp;"ＭＳ Ｐゴシック,標準"　富士通ラーニングメディア</oddFooter>
   </headerFooter>

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>クラス名</t>
   </si>
@@ -355,6 +355,27 @@
   </si>
   <si>
     <t>02_13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクション処理(DB更新異常)</t>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1162,34 +1183,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1200,185 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2131,7 +2152,7 @@
   <dimension ref="A1:BH165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18:BB18"/>
+      <selection activeCell="AV21" sqref="AV21:AW21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,34 +2163,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="91" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="88" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="90"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2182,62 +2203,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="88" t="s">
+      <c r="AI1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="80" t="s">
+      <c r="AJ1" s="96"/>
+      <c r="AK1" s="96"/>
+      <c r="AL1" s="96"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="103" t="s">
+      <c r="AP1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="104"/>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="105"/>
-      <c r="AV1" s="80" t="s">
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="104"/>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="105"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="62"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="112" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="113" t="s">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="100"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2250,173 +2271,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="98">
+      <c r="AI2" s="105">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="108"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="65"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="87" t="s">
+      <c r="AH4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86" t="s">
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86" t="s">
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="74" t="s">
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75" t="s">
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75" t="s">
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75" t="s">
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75" t="s">
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75" t="s">
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="79" t="s">
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="75" t="s">
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75" t="s">
+      <c r="AQ5" s="76"/>
+      <c r="AR5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="75"/>
+      <c r="AS5" s="76"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
+      <c r="AX5" s="76"/>
+      <c r="AY5" s="76"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="76"/>
+      <c r="BB5" s="76"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2425,50 +2446,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76" t="s">
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76" t="s">
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76" t="s">
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76" t="s">
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="76"/>
+      <c r="AH6" s="77"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2490,27 +2511,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="76" t="s">
+      <c r="AP6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76" t="s">
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76" t="s">
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76" t="s">
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
+      <c r="AW6" s="77"/>
+      <c r="AX6" s="77"/>
+      <c r="AY6" s="77"/>
+      <c r="AZ6" s="77"/>
+      <c r="BA6" s="77"/>
+      <c r="BB6" s="77"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2522,55 +2543,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="82" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="85" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="77">
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="78">
         <v>42909</v>
       </c>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77">
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78">
         <v>42909</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77">
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78">
         <v>42909</v>
       </c>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="78">
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="79">
         <v>5</v>
       </c>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78">
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79">
         <v>3</v>
       </c>
-      <c r="AH7" s="78"/>
+      <c r="AH7" s="79"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38" t="s">
         <v>37</v>
@@ -2580,82 +2601,82 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="77">
+      <c r="AP7" s="78">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77">
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78">
         <v>42909</v>
       </c>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77">
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78">
         <v>42909</v>
       </c>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77">
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78">
         <v>42909</v>
       </c>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="70" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71">
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="80">
         <v>42909</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="63">
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="88">
         <v>42909</v>
       </c>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="63">
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="88">
         <v>42909</v>
       </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="69">
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="74">
         <v>5</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69">
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74">
         <v>3</v>
       </c>
-      <c r="AH8" s="69"/>
+      <c r="AH8" s="74"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41" t="s">
         <v>37</v>
@@ -2665,82 +2686,82 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="72">
+      <c r="AP8" s="81">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="72">
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="81">
         <v>42909</v>
       </c>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="72">
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="81">
         <v>42909</v>
       </c>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="72">
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="81">
         <v>42909</v>
       </c>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="59"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="70" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="63">
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="88">
         <v>42909</v>
       </c>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="71">
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="80">
         <v>42909</v>
       </c>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71">
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80">
         <v>42909</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="69">
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="74">
         <v>5</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69">
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74">
         <v>3</v>
       </c>
-      <c r="AH9" s="69"/>
+      <c r="AH9" s="74"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41" t="s">
         <v>41</v>
@@ -2750,82 +2771,82 @@
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="53">
+      <c r="AP9" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53">
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75">
         <v>42909</v>
       </c>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53">
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75">
         <v>42909</v>
       </c>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53">
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75">
         <v>42909</v>
       </c>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="70" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71">
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="80">
         <v>42909</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71">
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80">
         <v>42909</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71">
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80">
         <v>42909</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="69">
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="74">
         <v>5</v>
       </c>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69">
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74">
         <v>3</v>
       </c>
-      <c r="AH10" s="69"/>
+      <c r="AH10" s="74"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41" t="s">
         <v>43</v>
@@ -2835,82 +2856,82 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="53">
+      <c r="AP10" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53">
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75">
         <v>42909</v>
       </c>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53">
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75">
         <v>42909</v>
       </c>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53">
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75">
         <v>42909</v>
       </c>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="70" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71">
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="80">
         <v>42909</v>
       </c>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71">
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80">
         <v>42909</v>
       </c>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71">
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80">
         <v>42909</v>
       </c>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="69">
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="74">
         <v>5</v>
       </c>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69">
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74">
         <v>3</v>
       </c>
-      <c r="AH11" s="69"/>
+      <c r="AH11" s="74"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41" t="s">
         <v>61</v>
@@ -2920,82 +2941,82 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="53">
+      <c r="AP11" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53">
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75">
         <v>42909</v>
       </c>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53">
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="75">
         <v>42909</v>
       </c>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53">
+      <c r="AU11" s="75"/>
+      <c r="AV11" s="75">
         <v>42909</v>
       </c>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="70" t="s">
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71">
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="80">
         <v>42909</v>
       </c>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71">
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80">
         <v>42909</v>
       </c>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71">
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80">
         <v>42909</v>
       </c>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="69">
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="74">
         <v>5</v>
       </c>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69">
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74">
         <v>3</v>
       </c>
-      <c r="AH12" s="69"/>
+      <c r="AH12" s="74"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="41" t="s">
         <v>62</v>
@@ -3005,82 +3026,82 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="53">
+      <c r="AP12" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53">
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75">
         <v>42909</v>
       </c>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53">
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75">
         <v>42909</v>
       </c>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53">
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75">
         <v>42909</v>
       </c>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66" t="s">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="70" t="s">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="71">
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="80">
         <v>42909</v>
       </c>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71">
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80">
         <v>42909</v>
       </c>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71">
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80">
         <v>42909</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="69">
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="74">
         <v>5</v>
       </c>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69">
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74">
         <v>3</v>
       </c>
-      <c r="AH13" s="69"/>
+      <c r="AH13" s="74"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41" t="s">
         <v>62</v>
@@ -3090,82 +3111,82 @@
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="53">
+      <c r="AP13" s="75">
         <v>42912</v>
       </c>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53">
+      <c r="AQ13" s="75"/>
+      <c r="AR13" s="75">
         <v>42912</v>
       </c>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53">
+      <c r="AS13" s="75"/>
+      <c r="AT13" s="75">
         <v>42909</v>
       </c>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53">
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75">
         <v>42912</v>
       </c>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="70" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="71">
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="80">
         <v>42909</v>
       </c>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71">
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80">
         <v>42909</v>
       </c>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71">
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80">
         <v>42909</v>
       </c>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="69">
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="74">
         <v>5</v>
       </c>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69">
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74">
         <v>3</v>
       </c>
-      <c r="AH14" s="69"/>
+      <c r="AH14" s="74"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="41" t="s">
         <v>49</v>
@@ -3175,82 +3196,82 @@
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="53">
+      <c r="AP14" s="75">
         <v>42909</v>
       </c>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53">
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75">
         <v>42909</v>
       </c>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53">
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75">
         <v>42909</v>
       </c>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53">
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75">
         <v>42909</v>
       </c>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66" t="s">
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="70" t="s">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="71">
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="80">
         <v>42912</v>
       </c>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71">
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="80">
         <v>42912</v>
       </c>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71">
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80">
         <v>42912</v>
       </c>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="69">
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="74">
         <v>5</v>
       </c>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69">
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74">
         <v>3</v>
       </c>
-      <c r="AH15" s="69"/>
+      <c r="AH15" s="74"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="41" t="s">
         <v>41</v>
@@ -3260,82 +3281,82 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="53">
+      <c r="AP15" s="75">
         <v>42912</v>
       </c>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="53">
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75">
         <v>42912</v>
       </c>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53">
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75">
         <v>42912</v>
       </c>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53">
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75">
         <v>42912</v>
       </c>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="66" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="70" t="s">
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71">
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="80">
         <v>42912</v>
       </c>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71">
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80">
         <v>42912</v>
       </c>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71">
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="80">
         <v>42912</v>
       </c>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="69">
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="74">
         <v>3</v>
       </c>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69">
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74">
         <v>3</v>
       </c>
-      <c r="AH16" s="69"/>
+      <c r="AH16" s="74"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="41" t="s">
         <v>56</v>
@@ -3345,82 +3366,82 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="72">
+      <c r="AP16" s="81">
         <v>42912</v>
       </c>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="53">
+      <c r="AQ16" s="82"/>
+      <c r="AR16" s="75">
         <v>42912</v>
       </c>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53">
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75">
         <v>42912</v>
       </c>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53">
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75">
         <v>42912</v>
       </c>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="59"/>
+      <c r="AZ16" s="59"/>
+      <c r="BA16" s="59"/>
+      <c r="BB16" s="59"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="70" t="s">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71">
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="80">
         <v>42912</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71">
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80">
         <v>42912</v>
       </c>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71">
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="80">
         <v>42912</v>
       </c>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="69">
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="74">
         <v>5</v>
       </c>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69">
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74">
         <v>3</v>
       </c>
-      <c r="AH17" s="69"/>
+      <c r="AH17" s="74"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="41" t="s">
         <v>41</v>
@@ -3430,82 +3451,82 @@
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="53">
+      <c r="AP17" s="75">
         <v>42912</v>
       </c>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53">
+      <c r="AQ17" s="75"/>
+      <c r="AR17" s="75">
         <v>42912</v>
       </c>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53">
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="75">
         <v>42912</v>
       </c>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53">
+      <c r="AU17" s="75"/>
+      <c r="AV17" s="75">
         <v>42912</v>
       </c>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="59"/>
+      <c r="AY17" s="59"/>
+      <c r="AZ17" s="59"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="70" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71">
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="80">
         <v>42912</v>
       </c>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71">
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80">
         <v>42912</v>
       </c>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71">
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80">
         <v>42912</v>
       </c>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="69">
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="74">
         <v>5</v>
       </c>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69">
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74">
         <v>3</v>
       </c>
-      <c r="AH18" s="69"/>
+      <c r="AH18" s="74"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41" t="s">
         <v>41</v>
@@ -3515,82 +3536,82 @@
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="72">
+      <c r="AP18" s="81">
         <v>42912</v>
       </c>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="53">
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="75">
         <v>42912</v>
       </c>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53">
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75">
         <v>42912</v>
       </c>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53">
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75">
         <v>42912</v>
       </c>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="59"/>
+      <c r="AY18" s="59"/>
+      <c r="AZ18" s="59"/>
+      <c r="BA18" s="59"/>
+      <c r="BB18" s="59"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66" t="s">
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="70" t="s">
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71">
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="80">
         <v>42912</v>
       </c>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71">
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80">
         <v>42912</v>
       </c>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71">
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80">
         <v>42912</v>
       </c>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="69">
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="74">
         <v>5</v>
       </c>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69">
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74">
         <v>3</v>
       </c>
-      <c r="AH19" s="69"/>
+      <c r="AH19" s="74"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41" t="s">
         <v>41</v>
@@ -3600,125 +3621,151 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="53">
+      <c r="AP19" s="75">
         <v>42912</v>
       </c>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53">
+      <c r="AQ19" s="75"/>
+      <c r="AR19" s="75">
         <v>42912</v>
       </c>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53">
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="75">
         <v>42912</v>
       </c>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53">
+      <c r="AU19" s="75"/>
+      <c r="AV19" s="75">
         <v>42912</v>
       </c>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
+      <c r="AW19" s="75"/>
+      <c r="AX19" s="59"/>
+      <c r="AY19" s="59"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="59"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
+      <c r="B20" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="80">
+        <v>42913</v>
+      </c>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80">
+        <v>42913</v>
+      </c>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80">
+        <v>42913</v>
+      </c>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="74">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="74"/>
       <c r="AI20" s="40"/>
-      <c r="AJ20" s="41"/>
+      <c r="AJ20" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="AK20" s="41"/>
       <c r="AL20" s="41"/>
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="53"/>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53"/>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53"/>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53"/>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
+      <c r="AP20" s="75">
+        <v>42913</v>
+      </c>
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="75">
+        <v>42913</v>
+      </c>
+      <c r="AS20" s="75"/>
+      <c r="AT20" s="75">
+        <v>42913</v>
+      </c>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="75">
+        <v>42913</v>
+      </c>
+      <c r="AW20" s="75"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="59"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="59"/>
+      <c r="BB20" s="59"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
@@ -3726,58 +3773,58 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="75"/>
+      <c r="AT21" s="75"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
@@ -3785,58 +3832,58 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="75"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="75"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="59"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
@@ -3844,58 +3891,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="70"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="75"/>
+      <c r="AU23" s="75"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="59"/>
+      <c r="AZ23" s="59"/>
+      <c r="BA23" s="59"/>
+      <c r="BB23" s="59"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="112"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3903,58 +3950,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="57"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="57"/>
-      <c r="BB24" s="58"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="75"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="85"/>
+      <c r="AY24" s="86"/>
+      <c r="AZ24" s="86"/>
+      <c r="BA24" s="86"/>
+      <c r="BB24" s="87"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="111"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="112"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -3962,58 +4009,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="58"/>
+      <c r="AP25" s="75"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="75"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="85"/>
+      <c r="AY25" s="86"/>
+      <c r="AZ25" s="86"/>
+      <c r="BA25" s="86"/>
+      <c r="BB25" s="87"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="110"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="108"/>
+      <c r="AG26" s="108"/>
+      <c r="AH26" s="108"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -4021,19 +4068,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
+      <c r="AP26" s="75"/>
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="75"/>
+      <c r="AT26" s="75"/>
+      <c r="AU26" s="75"/>
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="75"/>
+      <c r="AX26" s="109"/>
+      <c r="AY26" s="109"/>
+      <c r="AZ26" s="109"/>
+      <c r="BA26" s="109"/>
+      <c r="BB26" s="109"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4886,42 +4933,236 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AX26:BB26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="F15:R15"/>
     <mergeCell ref="AX24:BB24"/>
     <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="AC10:AD10"/>
@@ -4946,62 +5187,43 @@
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="AG18:AH18"/>
     <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AG6:AH6"/>
@@ -5013,181 +5235,6 @@
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="AH4:AO4"/>
     <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AX25:BB25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>クラス名</t>
   </si>
@@ -371,6 +371,31 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例外</t>
+    <rPh sb="0" eb="2">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文取消</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリケシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1183,32 +1208,185 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,99 +1404,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1336,71 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,8 +2176,8 @@
   </sheetPr>
   <dimension ref="A1:BH165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AV21" sqref="AV21:AW21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AX21" sqref="AX21:BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2163,34 +2188,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="98" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="95" t="s">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="97"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="82"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2203,62 +2228,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="95" t="s">
+      <c r="AI1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="72" t="s">
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AP1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="72" t="s">
+      <c r="AQ1" s="103"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="62"/>
+      <c r="AW1" s="102"/>
+      <c r="AX1" s="103"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="104"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="55" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58" t="s">
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="57"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="92"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2271,173 +2296,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="105">
+      <c r="AI2" s="90">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="64"/>
-      <c r="AT2" s="64"/>
-      <c r="AU2" s="65"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="64"/>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="65"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="106"/>
+      <c r="AS2" s="106"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="97"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="106"/>
+      <c r="AY2" s="106"/>
+      <c r="AZ2" s="106"/>
+      <c r="BA2" s="106"/>
+      <c r="BB2" s="107"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="48"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="48"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
       <c r="X4" s="48"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
       <c r="AE4" s="48"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="49"/>
-      <c r="AH4" s="94" t="s">
+      <c r="AH4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93" t="s">
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93" t="s">
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="54" t="s">
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AX4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76" t="s">
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76" t="s">
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76" t="s">
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76" t="s">
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76" t="s">
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="76"/>
-      <c r="AI5" s="106" t="s">
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="106"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="76" t="s">
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76" t="s">
+      <c r="AQ5" s="75"/>
+      <c r="AR5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="76"/>
+      <c r="AS5" s="75"/>
       <c r="AT5" s="50"/>
       <c r="AU5" s="14"/>
       <c r="AV5" s="51"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="76"/>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="76"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2446,50 +2471,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77" t="s">
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77" t="s">
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77" t="s">
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="77"/>
+      <c r="AH6" s="76"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2511,27 +2536,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="77" t="s">
+      <c r="AP6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77" t="s">
+      <c r="AQ6" s="76"/>
+      <c r="AR6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77" t="s">
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77" t="s">
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-      <c r="AY6" s="77"/>
-      <c r="AZ6" s="77"/>
-      <c r="BA6" s="77"/>
-      <c r="BB6" s="77"/>
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="76"/>
+      <c r="BB6" s="76"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2543,55 +2568,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="90" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="84" t="s">
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="78">
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="77">
         <v>42909</v>
       </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78">
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77">
         <v>42909</v>
       </c>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78">
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77">
         <v>42909</v>
       </c>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="79">
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="78">
         <v>5</v>
       </c>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="79">
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78">
         <v>3</v>
       </c>
-      <c r="AH7" s="79"/>
+      <c r="AH7" s="78"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38" t="s">
         <v>37</v>
@@ -2601,82 +2626,82 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="78">
+      <c r="AP7" s="77">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78">
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77">
         <v>42909</v>
       </c>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78">
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77">
         <v>42909</v>
       </c>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78">
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77">
         <v>42909</v>
       </c>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="84"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="69" t="s">
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="59" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="80">
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="71">
         <v>42909</v>
       </c>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="88">
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="63">
         <v>42909</v>
       </c>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="88">
+      <c r="AB8" s="65"/>
+      <c r="AC8" s="63">
         <v>42909</v>
       </c>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="74">
+      <c r="AD8" s="65"/>
+      <c r="AE8" s="69">
         <v>5</v>
       </c>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74">
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69">
         <v>3</v>
       </c>
-      <c r="AH8" s="74"/>
+      <c r="AH8" s="69"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41" t="s">
         <v>37</v>
@@ -2686,82 +2711,82 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="81">
+      <c r="AP8" s="72">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="81">
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="72">
         <v>42909</v>
       </c>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="81">
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="72">
         <v>42909</v>
       </c>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="81">
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="72">
         <v>42909</v>
       </c>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="59"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="69" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="59" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="88">
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="63">
         <v>42909</v>
       </c>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="80">
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="71">
         <v>42909</v>
       </c>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80">
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71">
         <v>42909</v>
       </c>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="74">
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="69">
         <v>5</v>
       </c>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74">
+      <c r="AF9" s="69"/>
+      <c r="AG9" s="69">
         <v>3</v>
       </c>
-      <c r="AH9" s="74"/>
+      <c r="AH9" s="69"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41" t="s">
         <v>41</v>
@@ -2771,82 +2796,82 @@
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="75">
+      <c r="AP9" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75">
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53">
         <v>42909</v>
       </c>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75">
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53">
         <v>42909</v>
       </c>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75">
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53">
         <v>42909</v>
       </c>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="59"/>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="59"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="69" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="59" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="80">
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="71">
         <v>42909</v>
       </c>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80">
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71">
         <v>42909</v>
       </c>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80">
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71">
         <v>42909</v>
       </c>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="74">
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="69">
         <v>5</v>
       </c>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74">
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69">
         <v>3</v>
       </c>
-      <c r="AH10" s="74"/>
+      <c r="AH10" s="69"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41" t="s">
         <v>43</v>
@@ -2856,82 +2881,82 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="75">
+      <c r="AP10" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75">
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53">
         <v>42909</v>
       </c>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75">
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53">
         <v>42909</v>
       </c>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75">
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53">
         <v>42909</v>
       </c>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="69" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="59" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="80">
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="71">
         <v>42909</v>
       </c>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80">
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71">
         <v>42909</v>
       </c>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80">
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71">
         <v>42909</v>
       </c>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="74">
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="69">
         <v>5</v>
       </c>
-      <c r="AF11" s="74"/>
-      <c r="AG11" s="74">
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69">
         <v>3</v>
       </c>
-      <c r="AH11" s="74"/>
+      <c r="AH11" s="69"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41" t="s">
         <v>61</v>
@@ -2941,82 +2966,82 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="75">
+      <c r="AP11" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ11" s="75"/>
-      <c r="AR11" s="75">
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53">
         <v>42909</v>
       </c>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="75">
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53">
         <v>42909</v>
       </c>
-      <c r="AU11" s="75"/>
-      <c r="AV11" s="75">
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53">
         <v>42909</v>
       </c>
-      <c r="AW11" s="75"/>
-      <c r="AX11" s="59"/>
-      <c r="AY11" s="59"/>
-      <c r="AZ11" s="59"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="69" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="59" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="80">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71">
         <v>42909</v>
       </c>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80">
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71">
         <v>42909</v>
       </c>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80">
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71">
         <v>42909</v>
       </c>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="74">
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="69">
         <v>5</v>
       </c>
-      <c r="AF12" s="74"/>
-      <c r="AG12" s="74">
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69">
         <v>3</v>
       </c>
-      <c r="AH12" s="74"/>
+      <c r="AH12" s="69"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="41" t="s">
         <v>62</v>
@@ -3026,82 +3051,82 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="75">
+      <c r="AP12" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="75">
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53">
         <v>42909</v>
       </c>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="75">
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53">
         <v>42909</v>
       </c>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="75">
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53">
         <v>42909</v>
       </c>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="69" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="59" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="80">
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="71">
         <v>42909</v>
       </c>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80">
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71">
         <v>42909</v>
       </c>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80">
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71">
         <v>42909</v>
       </c>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="74">
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="69">
         <v>5</v>
       </c>
-      <c r="AF13" s="74"/>
-      <c r="AG13" s="74">
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69">
         <v>3</v>
       </c>
-      <c r="AH13" s="74"/>
+      <c r="AH13" s="69"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41" t="s">
         <v>62</v>
@@ -3111,82 +3136,82 @@
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="75">
+      <c r="AP13" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ13" s="75"/>
-      <c r="AR13" s="75">
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53">
         <v>42912</v>
       </c>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="75">
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53">
         <v>42909</v>
       </c>
-      <c r="AU13" s="75"/>
-      <c r="AV13" s="75">
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53">
         <v>42912</v>
       </c>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="69" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="59" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="80">
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="71">
         <v>42909</v>
       </c>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80">
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71">
         <v>42909</v>
       </c>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80">
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71">
         <v>42909</v>
       </c>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="74">
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="69">
         <v>5</v>
       </c>
-      <c r="AF14" s="74"/>
-      <c r="AG14" s="74">
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69">
         <v>3</v>
       </c>
-      <c r="AH14" s="74"/>
+      <c r="AH14" s="69"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="41" t="s">
         <v>49</v>
@@ -3196,82 +3221,82 @@
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="75">
+      <c r="AP14" s="53">
         <v>42909</v>
       </c>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75">
+      <c r="AQ14" s="53"/>
+      <c r="AR14" s="53">
         <v>42909</v>
       </c>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75">
+      <c r="AS14" s="53"/>
+      <c r="AT14" s="53">
         <v>42909</v>
       </c>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75">
+      <c r="AU14" s="53"/>
+      <c r="AV14" s="53">
         <v>42909</v>
       </c>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
+      <c r="AW14" s="53"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="70"/>
+      <c r="AZ14" s="70"/>
+      <c r="BA14" s="70"/>
+      <c r="BB14" s="70"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="69" t="s">
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="59" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="80">
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="71">
         <v>42912</v>
       </c>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80">
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71">
         <v>42912</v>
       </c>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80">
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71">
         <v>42912</v>
       </c>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="74">
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="69">
         <v>5</v>
       </c>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74">
+      <c r="AF15" s="69"/>
+      <c r="AG15" s="69">
         <v>3</v>
       </c>
-      <c r="AH15" s="74"/>
+      <c r="AH15" s="69"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="41" t="s">
         <v>41</v>
@@ -3281,82 +3306,82 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="75">
+      <c r="AP15" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ15" s="75"/>
-      <c r="AR15" s="75">
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="53">
         <v>42912</v>
       </c>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="75">
+      <c r="AS15" s="53"/>
+      <c r="AT15" s="53">
         <v>42912</v>
       </c>
-      <c r="AU15" s="75"/>
-      <c r="AV15" s="75">
+      <c r="AU15" s="53"/>
+      <c r="AV15" s="53">
         <v>42912</v>
       </c>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="59"/>
-      <c r="AZ15" s="59"/>
-      <c r="BA15" s="59"/>
-      <c r="BB15" s="59"/>
+      <c r="AW15" s="53"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="69" t="s">
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="59" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="80">
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="71">
         <v>42912</v>
       </c>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80">
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71">
         <v>42912</v>
       </c>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80">
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71">
         <v>42912</v>
       </c>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="74">
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="69">
         <v>3</v>
       </c>
-      <c r="AF16" s="74"/>
-      <c r="AG16" s="74">
+      <c r="AF16" s="69"/>
+      <c r="AG16" s="69">
         <v>3</v>
       </c>
-      <c r="AH16" s="74"/>
+      <c r="AH16" s="69"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="41" t="s">
         <v>56</v>
@@ -3366,82 +3391,82 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="81">
+      <c r="AP16" s="72">
         <v>42912</v>
       </c>
-      <c r="AQ16" s="82"/>
-      <c r="AR16" s="75">
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="53">
         <v>42912</v>
       </c>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="75">
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53">
         <v>42912</v>
       </c>
-      <c r="AU16" s="75"/>
-      <c r="AV16" s="75">
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53">
         <v>42912</v>
       </c>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="59"/>
-      <c r="AY16" s="59"/>
-      <c r="AZ16" s="59"/>
-      <c r="BA16" s="59"/>
-      <c r="BB16" s="59"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="69" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="59" t="s">
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="80">
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="71">
         <v>42912</v>
       </c>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80">
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71">
         <v>42912</v>
       </c>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80">
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71">
         <v>42912</v>
       </c>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="74">
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="69">
         <v>5</v>
       </c>
-      <c r="AF17" s="74"/>
-      <c r="AG17" s="74">
+      <c r="AF17" s="69"/>
+      <c r="AG17" s="69">
         <v>3</v>
       </c>
-      <c r="AH17" s="74"/>
+      <c r="AH17" s="69"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="41" t="s">
         <v>41</v>
@@ -3451,82 +3476,82 @@
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="75">
+      <c r="AP17" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="75">
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53">
         <v>42912</v>
       </c>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="75">
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53">
         <v>42912</v>
       </c>
-      <c r="AU17" s="75"/>
-      <c r="AV17" s="75">
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53">
         <v>42912</v>
       </c>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="59"/>
-      <c r="AY17" s="59"/>
-      <c r="AZ17" s="59"/>
-      <c r="BA17" s="59"/>
-      <c r="BB17" s="59"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="69" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="59" t="s">
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="80">
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71">
         <v>42912</v>
       </c>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80">
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71">
         <v>42912</v>
       </c>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80">
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71">
         <v>42912</v>
       </c>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="74">
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="69">
         <v>5</v>
       </c>
-      <c r="AF18" s="74"/>
-      <c r="AG18" s="74">
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69">
         <v>3</v>
       </c>
-      <c r="AH18" s="74"/>
+      <c r="AH18" s="69"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41" t="s">
         <v>41</v>
@@ -3536,82 +3561,82 @@
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="81">
+      <c r="AP18" s="72">
         <v>42912</v>
       </c>
-      <c r="AQ18" s="82"/>
-      <c r="AR18" s="75">
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="53">
         <v>42912</v>
       </c>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75">
+      <c r="AS18" s="53"/>
+      <c r="AT18" s="53">
         <v>42912</v>
       </c>
-      <c r="AU18" s="75"/>
-      <c r="AV18" s="75">
+      <c r="AU18" s="53"/>
+      <c r="AV18" s="53">
         <v>42912</v>
       </c>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="59"/>
-      <c r="AY18" s="59"/>
-      <c r="AZ18" s="59"/>
-      <c r="BA18" s="59"/>
-      <c r="BB18" s="59"/>
+      <c r="AW18" s="53"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="70"/>
+      <c r="BB18" s="70"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="69" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="59" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="80">
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71">
         <v>42912</v>
       </c>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80">
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71">
         <v>42912</v>
       </c>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80">
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71">
         <v>42912</v>
       </c>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="74">
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="69">
         <v>5</v>
       </c>
-      <c r="AF19" s="74"/>
-      <c r="AG19" s="74">
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="69">
         <v>3</v>
       </c>
-      <c r="AH19" s="74"/>
+      <c r="AH19" s="69"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41" t="s">
         <v>41</v>
@@ -3621,82 +3646,82 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="75">
+      <c r="AP19" s="53">
         <v>42912</v>
       </c>
-      <c r="AQ19" s="75"/>
-      <c r="AR19" s="75">
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53">
         <v>42912</v>
       </c>
-      <c r="AS19" s="75"/>
-      <c r="AT19" s="75">
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53">
         <v>42912</v>
       </c>
-      <c r="AU19" s="75"/>
-      <c r="AV19" s="75">
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53">
         <v>42912</v>
       </c>
-      <c r="AW19" s="75"/>
-      <c r="AX19" s="59"/>
-      <c r="AY19" s="59"/>
-      <c r="AZ19" s="59"/>
-      <c r="BA19" s="59"/>
-      <c r="BB19" s="59"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="69" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="59" t="s">
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="80">
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="71">
         <v>42913</v>
       </c>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80">
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71">
         <v>42913</v>
       </c>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80">
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71">
         <v>42913</v>
       </c>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="74">
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="69">
         <v>5</v>
       </c>
-      <c r="AF20" s="74"/>
-      <c r="AG20" s="74">
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69">
         <v>3</v>
       </c>
-      <c r="AH20" s="74"/>
+      <c r="AH20" s="69"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41" t="s">
         <v>67</v>
@@ -3706,125 +3731,151 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="75">
+      <c r="AP20" s="53">
         <v>42913</v>
       </c>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="75">
+      <c r="AQ20" s="53"/>
+      <c r="AR20" s="53">
         <v>42913</v>
       </c>
-      <c r="AS20" s="75"/>
-      <c r="AT20" s="75">
+      <c r="AS20" s="53"/>
+      <c r="AT20" s="53">
         <v>42913</v>
       </c>
-      <c r="AU20" s="75"/>
-      <c r="AV20" s="75">
+      <c r="AU20" s="53"/>
+      <c r="AV20" s="53">
         <v>42913</v>
       </c>
-      <c r="AW20" s="75"/>
-      <c r="AX20" s="59"/>
-      <c r="AY20" s="59"/>
-      <c r="AZ20" s="59"/>
-      <c r="BA20" s="59"/>
-      <c r="BB20" s="59"/>
+      <c r="AW20" s="53"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="70"/>
+      <c r="BB20" s="70"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="74"/>
-      <c r="AG21" s="74"/>
-      <c r="AH21" s="74"/>
+      <c r="B21" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="71">
+        <v>42913</v>
+      </c>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71">
+        <v>42913</v>
+      </c>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71">
+        <v>42913</v>
+      </c>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="69">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="69"/>
+      <c r="AG21" s="69">
+        <v>3</v>
+      </c>
+      <c r="AH21" s="69"/>
       <c r="AI21" s="40"/>
-      <c r="AJ21" s="41"/>
+      <c r="AJ21" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="AK21" s="41"/>
       <c r="AL21" s="41"/>
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="75"/>
-      <c r="AR21" s="75"/>
-      <c r="AS21" s="75"/>
-      <c r="AT21" s="75"/>
-      <c r="AU21" s="75"/>
-      <c r="AV21" s="75"/>
-      <c r="AW21" s="75"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="59"/>
+      <c r="AP21" s="53">
+        <v>42913</v>
+      </c>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="53">
+        <v>42913</v>
+      </c>
+      <c r="AS21" s="53"/>
+      <c r="AT21" s="53">
+        <v>42913</v>
+      </c>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53">
+        <v>42913</v>
+      </c>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="74"/>
-      <c r="AG22" s="74"/>
-      <c r="AH22" s="74"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="41"/>
       <c r="AK22" s="41"/>
@@ -3832,58 +3883,58 @@
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="75"/>
-      <c r="AQ22" s="75"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="75"/>
-      <c r="AT22" s="75"/>
-      <c r="AU22" s="75"/>
-      <c r="AV22" s="75"/>
-      <c r="AW22" s="75"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="59"/>
-      <c r="BA22" s="59"/>
-      <c r="BB22" s="59"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
+      <c r="AG23" s="69"/>
+      <c r="AH23" s="69"/>
       <c r="AI23" s="40"/>
       <c r="AJ23" s="41"/>
       <c r="AK23" s="41"/>
@@ -3891,58 +3942,58 @@
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="75"/>
-      <c r="AQ23" s="75"/>
-      <c r="AR23" s="75"/>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="75"/>
-      <c r="AU23" s="75"/>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
-      <c r="AX23" s="59"/>
-      <c r="AY23" s="59"/>
-      <c r="AZ23" s="59"/>
-      <c r="BA23" s="59"/>
-      <c r="BB23" s="59"/>
+      <c r="AP23" s="53"/>
+      <c r="AQ23" s="53"/>
+      <c r="AR23" s="53"/>
+      <c r="AS23" s="53"/>
+      <c r="AT23" s="53"/>
+      <c r="AU23" s="53"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="53"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="70"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="111"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="112"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="61"/>
       <c r="AI24" s="40"/>
       <c r="AJ24" s="41"/>
       <c r="AK24" s="41"/>
@@ -3950,58 +4001,58 @@
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="75"/>
-      <c r="AQ24" s="75"/>
-      <c r="AR24" s="75"/>
-      <c r="AS24" s="75"/>
-      <c r="AT24" s="75"/>
-      <c r="AU24" s="75"/>
-      <c r="AV24" s="75"/>
-      <c r="AW24" s="75"/>
-      <c r="AX24" s="85"/>
-      <c r="AY24" s="86"/>
-      <c r="AZ24" s="86"/>
-      <c r="BA24" s="86"/>
-      <c r="BB24" s="87"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="56"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="58"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="112"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="112"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="61"/>
       <c r="AI25" s="40"/>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
@@ -4009,58 +4060,58 @@
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="75"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="75"/>
-      <c r="AT25" s="75"/>
-      <c r="AU25" s="75"/>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
-      <c r="AX25" s="85"/>
-      <c r="AY25" s="86"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="87"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="58"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>20</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="110"/>
-      <c r="Z26" s="110"/>
-      <c r="AA26" s="110"/>
-      <c r="AB26" s="110"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="110"/>
-      <c r="AE26" s="108"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="108"/>
-      <c r="AH26" s="108"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
       <c r="AI26" s="43"/>
       <c r="AJ26" s="44"/>
       <c r="AK26" s="44"/>
@@ -4068,19 +4119,19 @@
       <c r="AM26" s="44"/>
       <c r="AN26" s="44"/>
       <c r="AO26" s="45"/>
-      <c r="AP26" s="75"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="75"/>
-      <c r="AU26" s="75"/>
-      <c r="AV26" s="75"/>
-      <c r="AW26" s="75"/>
-      <c r="AX26" s="109"/>
-      <c r="AY26" s="109"/>
-      <c r="AZ26" s="109"/>
-      <c r="BA26" s="109"/>
-      <c r="BB26" s="109"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="53"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4933,17 +4984,273 @@
     </row>
   </sheetData>
   <mergeCells count="302">
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="F20:R20"/>
+    <mergeCell ref="F21:R21"/>
+    <mergeCell ref="F22:R22"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="F16:R16"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="F5:R6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BB10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AX25:BB25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="S26:W26"/>
@@ -4968,273 +5275,17 @@
     <mergeCell ref="AC24:AD24"/>
     <mergeCell ref="AR24:AS24"/>
     <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="F20:R20"/>
-    <mergeCell ref="F21:R21"/>
-    <mergeCell ref="F22:R22"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="F16:R16"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="F5:R6"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">

--- a/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
+++ b/doc/unfinished/Trouble_report/5_ﾄﾗﾌﾞﾙ管理表.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$BB$30</definedName>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>クラス名</t>
   </si>
@@ -401,6 +402,76 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>注文取消</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セッション関係</t>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02_19</t>
+  </si>
+  <si>
+    <t>02_20</t>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショッピングカート画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1041,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,10 +1246,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1208,224 +1275,232 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,8 +1526,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>141194</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2176,46 +2251,48 @@
   </sheetPr>
   <dimension ref="A1:BH165"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AX21" sqref="AX21:BB21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="73" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="22" width="2.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.5" style="2" customWidth="1"/>
+    <col min="24" max="73" width="2.625" style="2" customWidth="1"/>
     <col min="74" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="80" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="83" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="82"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="3"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
@@ -2228,62 +2305,62 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="5"/>
-      <c r="AI1" s="83" t="s">
+      <c r="AI1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="82"/>
-      <c r="AO1" s="96" t="s">
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" s="102" t="s">
+      <c r="AP1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="96" t="s">
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="104"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="54"/>
     </row>
     <row r="2" spans="1:60" s="10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="100" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="101" t="s">
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="92"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="99"/>
       <c r="W2" s="7"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
@@ -2296,173 +2373,173 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="90">
+      <c r="AI2" s="97">
         <v>42906</v>
       </c>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="97"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="97"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="106"/>
-      <c r="AZ2" s="106"/>
-      <c r="BA2" s="106"/>
-      <c r="BB2" s="107"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="57"/>
     </row>
     <row r="3" spans="1:60" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:60" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="12"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="113" t="s">
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112" t="s">
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112" t="s">
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="74" t="s">
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
+      <c r="AY4" s="81"/>
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="81"/>
     </row>
     <row r="5" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75" t="s">
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75" t="s">
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AB5" s="75"/>
-      <c r="AC5" s="75" t="s">
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75" t="s">
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75" t="s">
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="79" t="s">
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
-      <c r="AL5" s="79"/>
-      <c r="AM5" s="79"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="79"/>
-      <c r="AP5" s="75" t="s">
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="75"/>
-      <c r="AR5" s="75" t="s">
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="50"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="49"/>
       <c r="AU5" s="14"/>
-      <c r="AV5" s="51"/>
+      <c r="AV5" s="50"/>
       <c r="AW5" s="14"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
       <c r="BC5" s="15"/>
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
@@ -2471,50 +2548,50 @@
       <c r="BH5" s="15"/>
     </row>
     <row r="6" spans="1:60" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76" t="s">
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76" t="s">
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76" t="s">
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="76"/>
+      <c r="AH6" s="60"/>
       <c r="AI6" s="34">
         <v>1</v>
       </c>
@@ -2536,27 +2613,27 @@
       <c r="AO6" s="36">
         <v>7</v>
       </c>
-      <c r="AP6" s="76" t="s">
+      <c r="AP6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76" t="s">
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76" t="s">
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76" t="s">
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="76"/>
-      <c r="AX6" s="76"/>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
       <c r="BC6" s="17"/>
       <c r="BD6" s="17"/>
       <c r="BE6" s="18"/>
@@ -2568,55 +2645,55 @@
       <c r="A7" s="19">
         <v>1</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="98" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="77">
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68">
         <v>42909</v>
       </c>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68">
         <v>42909</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68">
         <v>42909</v>
       </c>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="78">
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="90">
         <v>5</v>
       </c>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78">
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90">
         <v>3</v>
       </c>
-      <c r="AH7" s="78"/>
+      <c r="AH7" s="90"/>
       <c r="AI7" s="37"/>
       <c r="AJ7" s="38" t="s">
         <v>37</v>
@@ -2626,82 +2703,82 @@
       <c r="AM7" s="38"/>
       <c r="AN7" s="38"/>
       <c r="AO7" s="39"/>
-      <c r="AP7" s="77">
+      <c r="AP7" s="68">
         <v>42909</v>
       </c>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77">
+      <c r="AQ7" s="68"/>
+      <c r="AR7" s="68">
         <v>42909</v>
       </c>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77">
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="68">
         <v>42909</v>
       </c>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77">
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68">
         <v>42909</v>
       </c>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
-      <c r="BA7" s="98"/>
-      <c r="BB7" s="98"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="67"/>
+      <c r="AY7" s="67"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
       <c r="BC7" s="20"/>
     </row>
     <row r="8" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="70" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71">
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="91">
         <v>42909</v>
       </c>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="63">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="104">
         <v>42909</v>
       </c>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="63">
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="104">
         <v>42909</v>
       </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="69">
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="88">
         <v>5</v>
       </c>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69">
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88">
         <v>3</v>
       </c>
-      <c r="AH8" s="69"/>
+      <c r="AH8" s="88"/>
       <c r="AI8" s="40"/>
       <c r="AJ8" s="41" t="s">
         <v>37</v>
@@ -2711,82 +2788,82 @@
       <c r="AM8" s="41"/>
       <c r="AN8" s="41"/>
       <c r="AO8" s="42"/>
-      <c r="AP8" s="72">
+      <c r="AP8" s="92">
         <v>42909</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="72">
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="92">
         <v>42909</v>
       </c>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="72">
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="92">
         <v>42909</v>
       </c>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="72">
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="92">
         <v>42909</v>
       </c>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="58"/>
+      <c r="AY8" s="58"/>
+      <c r="AZ8" s="58"/>
+      <c r="BA8" s="58"/>
+      <c r="BB8" s="58"/>
       <c r="BC8" s="23"/>
     </row>
     <row r="9" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="70" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="63">
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="104">
         <v>42909</v>
       </c>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="71">
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="91">
         <v>42909</v>
       </c>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71">
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91">
         <v>42909</v>
       </c>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="69">
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="88">
         <v>5</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69">
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88">
         <v>3</v>
       </c>
-      <c r="AH9" s="69"/>
+      <c r="AH9" s="88"/>
       <c r="AI9" s="40"/>
       <c r="AJ9" s="41" t="s">
         <v>41</v>
@@ -2796,82 +2873,82 @@
       <c r="AM9" s="41"/>
       <c r="AN9" s="41"/>
       <c r="AO9" s="42"/>
-      <c r="AP9" s="53">
+      <c r="AP9" s="89">
         <v>42909</v>
       </c>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53">
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89">
         <v>42909</v>
       </c>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53">
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89">
         <v>42909</v>
       </c>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53">
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89">
         <v>42909</v>
       </c>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="58"/>
+      <c r="AY9" s="58"/>
+      <c r="AZ9" s="58"/>
+      <c r="BA9" s="58"/>
+      <c r="BB9" s="58"/>
       <c r="BC9" s="23"/>
     </row>
     <row r="10" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="70" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71">
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="91">
         <v>42909</v>
       </c>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71">
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91">
         <v>42909</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71">
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="91">
         <v>42909</v>
       </c>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="69">
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="88">
         <v>5</v>
       </c>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69">
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88">
         <v>3</v>
       </c>
-      <c r="AH10" s="69"/>
+      <c r="AH10" s="88"/>
       <c r="AI10" s="40"/>
       <c r="AJ10" s="41" t="s">
         <v>43</v>
@@ -2881,82 +2958,82 @@
       <c r="AM10" s="41"/>
       <c r="AN10" s="41"/>
       <c r="AO10" s="42"/>
-      <c r="AP10" s="53">
+      <c r="AP10" s="89">
         <v>42909</v>
       </c>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53">
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89">
         <v>42909</v>
       </c>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53">
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89">
         <v>42909</v>
       </c>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53">
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89">
         <v>42909</v>
       </c>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="58"/>
       <c r="BC10" s="23"/>
     </row>
     <row r="11" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>5</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="70" t="s">
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71">
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="91">
         <v>42909</v>
       </c>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71">
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91">
         <v>42909</v>
       </c>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71">
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="91">
         <v>42909</v>
       </c>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="69">
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="88">
         <v>5</v>
       </c>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69">
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88">
         <v>3</v>
       </c>
-      <c r="AH11" s="69"/>
+      <c r="AH11" s="88"/>
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41" t="s">
         <v>61</v>
@@ -2966,82 +3043,82 @@
       <c r="AM11" s="41"/>
       <c r="AN11" s="41"/>
       <c r="AO11" s="42"/>
-      <c r="AP11" s="53">
+      <c r="AP11" s="89">
         <v>42909</v>
       </c>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53">
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89">
         <v>42909</v>
       </c>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53">
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89">
         <v>42909</v>
       </c>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53">
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89">
         <v>42909</v>
       </c>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
       <c r="BC11" s="23"/>
     </row>
     <row r="12" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="70" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71">
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="91">
         <v>42909</v>
       </c>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71">
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91">
         <v>42909</v>
       </c>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71">
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="91">
         <v>42909</v>
       </c>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="69">
+      <c r="AD12" s="91"/>
+      <c r="AE12" s="88">
         <v>5</v>
       </c>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69">
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88">
         <v>3</v>
       </c>
-      <c r="AH12" s="69"/>
+      <c r="AH12" s="88"/>
       <c r="AI12" s="40"/>
       <c r="AJ12" s="41" t="s">
         <v>62</v>
@@ -3051,82 +3128,82 @@
       <c r="AM12" s="41"/>
       <c r="AN12" s="41"/>
       <c r="AO12" s="42"/>
-      <c r="AP12" s="53">
+      <c r="AP12" s="89">
         <v>42909</v>
       </c>
-      <c r="AQ12" s="53"/>
-      <c r="AR12" s="53">
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89">
         <v>42909</v>
       </c>
-      <c r="AS12" s="53"/>
-      <c r="AT12" s="53">
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89">
         <v>42909</v>
       </c>
-      <c r="AU12" s="53"/>
-      <c r="AV12" s="53">
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89">
         <v>42909</v>
       </c>
-      <c r="AW12" s="53"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
       <c r="BC12" s="23"/>
     </row>
     <row r="13" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>7</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="66" t="s">
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="70" t="s">
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="71">
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="91">
         <v>42909</v>
       </c>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71">
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91">
         <v>42909</v>
       </c>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71">
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91">
         <v>42909</v>
       </c>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="69">
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="88">
         <v>5</v>
       </c>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69">
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88">
         <v>3</v>
       </c>
-      <c r="AH13" s="69"/>
+      <c r="AH13" s="88"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="41" t="s">
         <v>62</v>
@@ -3136,82 +3213,82 @@
       <c r="AM13" s="41"/>
       <c r="AN13" s="41"/>
       <c r="AO13" s="42"/>
-      <c r="AP13" s="53">
+      <c r="AP13" s="89">
         <v>42912</v>
       </c>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53">
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89">
         <v>42912</v>
       </c>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53">
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89">
         <v>42909</v>
       </c>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53">
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89">
         <v>42912</v>
       </c>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
       <c r="BC13" s="23"/>
     </row>
     <row r="14" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="66" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="70" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="71">
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="91">
         <v>42909</v>
       </c>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71">
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91">
         <v>42909</v>
       </c>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71">
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91">
         <v>42909</v>
       </c>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="69">
+      <c r="AD14" s="91"/>
+      <c r="AE14" s="88">
         <v>5</v>
       </c>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69">
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88">
         <v>3</v>
       </c>
-      <c r="AH14" s="69"/>
+      <c r="AH14" s="88"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="41" t="s">
         <v>49</v>
@@ -3221,82 +3298,82 @@
       <c r="AM14" s="41"/>
       <c r="AN14" s="41"/>
       <c r="AO14" s="42"/>
-      <c r="AP14" s="53">
+      <c r="AP14" s="89">
         <v>42909</v>
       </c>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53">
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89">
         <v>42909</v>
       </c>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53">
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89">
         <v>42909</v>
       </c>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53">
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89">
         <v>42909</v>
       </c>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="58"/>
+      <c r="AZ14" s="58"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="58"/>
       <c r="BC14" s="23"/>
     </row>
     <row r="15" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22">
         <v>9</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="66" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="70" t="s">
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="71">
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="91">
         <v>42912</v>
       </c>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71">
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="91">
         <v>42912</v>
       </c>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71">
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="91">
         <v>42912</v>
       </c>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="69">
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="88">
         <v>5</v>
       </c>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69">
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88">
         <v>3</v>
       </c>
-      <c r="AH15" s="69"/>
+      <c r="AH15" s="88"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="41" t="s">
         <v>41</v>
@@ -3306,82 +3383,82 @@
       <c r="AM15" s="41"/>
       <c r="AN15" s="41"/>
       <c r="AO15" s="42"/>
-      <c r="AP15" s="53">
+      <c r="AP15" s="89">
         <v>42912</v>
       </c>
-      <c r="AQ15" s="53"/>
-      <c r="AR15" s="53">
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89">
         <v>42912</v>
       </c>
-      <c r="AS15" s="53"/>
-      <c r="AT15" s="53">
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89">
         <v>42912</v>
       </c>
-      <c r="AU15" s="53"/>
-      <c r="AV15" s="53">
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89">
         <v>42912</v>
       </c>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
       <c r="BC15" s="23"/>
     </row>
     <row r="16" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22">
         <v>10</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="66" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="70" t="s">
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71">
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="91">
         <v>42912</v>
       </c>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71">
+      <c r="Y16" s="91"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="91">
         <v>42912</v>
       </c>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71">
+      <c r="AB16" s="91"/>
+      <c r="AC16" s="91">
         <v>42912</v>
       </c>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="69">
+      <c r="AD16" s="91"/>
+      <c r="AE16" s="88">
         <v>3</v>
       </c>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69">
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88">
         <v>3</v>
       </c>
-      <c r="AH16" s="69"/>
+      <c r="AH16" s="88"/>
       <c r="AI16" s="40"/>
       <c r="AJ16" s="41" t="s">
         <v>56</v>
@@ -3391,82 +3468,82 @@
       <c r="AM16" s="41"/>
       <c r="AN16" s="41"/>
       <c r="AO16" s="42"/>
-      <c r="AP16" s="72">
+      <c r="AP16" s="92">
         <v>42912</v>
       </c>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="53">
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="89">
         <v>42912</v>
       </c>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53">
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="89">
         <v>42912</v>
       </c>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53">
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="89">
         <v>42912</v>
       </c>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
       <c r="BC16" s="23"/>
     </row>
     <row r="17" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22">
         <v>11</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="66" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="70" t="s">
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71">
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="91">
         <v>42912</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71">
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="91"/>
+      <c r="AA17" s="91">
         <v>42912</v>
       </c>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71">
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="91">
         <v>42912</v>
       </c>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="69">
+      <c r="AD17" s="91"/>
+      <c r="AE17" s="88">
         <v>5</v>
       </c>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69">
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88">
         <v>3</v>
       </c>
-      <c r="AH17" s="69"/>
+      <c r="AH17" s="88"/>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="41" t="s">
         <v>41</v>
@@ -3476,82 +3553,82 @@
       <c r="AM17" s="41"/>
       <c r="AN17" s="41"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="53">
+      <c r="AP17" s="89">
         <v>42912</v>
       </c>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53">
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89">
         <v>42912</v>
       </c>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53">
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89">
         <v>42912</v>
       </c>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53">
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="89">
         <v>42912</v>
       </c>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
       <c r="BC17" s="23"/>
     </row>
     <row r="18" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22">
         <v>12</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="66" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="70" t="s">
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71">
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="91">
         <v>42912</v>
       </c>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71">
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91">
         <v>42912</v>
       </c>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71">
+      <c r="AB18" s="91"/>
+      <c r="AC18" s="91">
         <v>42912</v>
       </c>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="69">
+      <c r="AD18" s="91"/>
+      <c r="AE18" s="88">
         <v>5</v>
       </c>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69">
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88">
         <v>3</v>
       </c>
-      <c r="AH18" s="69"/>
+      <c r="AH18" s="88"/>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="41" t="s">
         <v>41</v>
@@ -3561,82 +3638,82 @@
       <c r="AM18" s="41"/>
       <c r="AN18" s="41"/>
       <c r="AO18" s="42"/>
-      <c r="AP18" s="72">
+      <c r="AP18" s="92">
         <v>42912</v>
       </c>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="53">
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="89">
         <v>42912</v>
       </c>
-      <c r="AS18" s="53"/>
-      <c r="AT18" s="53">
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89">
         <v>42912</v>
       </c>
-      <c r="AU18" s="53"/>
-      <c r="AV18" s="53">
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89">
         <v>42912</v>
       </c>
-      <c r="AW18" s="53"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
       <c r="BC18" s="23"/>
     </row>
     <row r="19" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22">
         <v>13</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="66" t="s">
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="70" t="s">
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71">
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="91">
         <v>42912</v>
       </c>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71">
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91">
         <v>42912</v>
       </c>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71">
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="91">
         <v>42912</v>
       </c>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="69">
+      <c r="AD19" s="91"/>
+      <c r="AE19" s="88">
         <v>5</v>
       </c>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69">
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88">
         <v>3</v>
       </c>
-      <c r="AH19" s="69"/>
+      <c r="AH19" s="88"/>
       <c r="AI19" s="40"/>
       <c r="AJ19" s="41" t="s">
         <v>41</v>
@@ -3646,82 +3723,82 @@
       <c r="AM19" s="41"/>
       <c r="AN19" s="41"/>
       <c r="AO19" s="42"/>
-      <c r="AP19" s="53">
+      <c r="AP19" s="89">
         <v>42912</v>
       </c>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53">
+      <c r="AQ19" s="89"/>
+      <c r="AR19" s="89">
         <v>42912</v>
       </c>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53">
+      <c r="AS19" s="89"/>
+      <c r="AT19" s="89">
         <v>42912</v>
       </c>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53">
+      <c r="AU19" s="89"/>
+      <c r="AV19" s="89">
         <v>42912</v>
       </c>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
+      <c r="AW19" s="89"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
       <c r="BC19" s="23"/>
     </row>
     <row r="20" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22">
         <v>14</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="66" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="70" t="s">
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="71">
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="91">
         <v>42913</v>
       </c>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71">
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="91">
         <v>42913</v>
       </c>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71">
+      <c r="AB20" s="91"/>
+      <c r="AC20" s="91">
         <v>42913</v>
       </c>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="69">
+      <c r="AD20" s="91"/>
+      <c r="AE20" s="88">
         <v>5</v>
       </c>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69">
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88">
         <v>3</v>
       </c>
-      <c r="AH20" s="69"/>
+      <c r="AH20" s="88"/>
       <c r="AI20" s="40"/>
       <c r="AJ20" s="41" t="s">
         <v>67</v>
@@ -3731,82 +3808,82 @@
       <c r="AM20" s="41"/>
       <c r="AN20" s="41"/>
       <c r="AO20" s="42"/>
-      <c r="AP20" s="53">
+      <c r="AP20" s="89">
         <v>42913</v>
       </c>
-      <c r="AQ20" s="53"/>
-      <c r="AR20" s="53">
+      <c r="AQ20" s="89"/>
+      <c r="AR20" s="89">
         <v>42913</v>
       </c>
-      <c r="AS20" s="53"/>
-      <c r="AT20" s="53">
+      <c r="AS20" s="89"/>
+      <c r="AT20" s="89">
         <v>42913</v>
       </c>
-      <c r="AU20" s="53"/>
-      <c r="AV20" s="53">
+      <c r="AU20" s="89"/>
+      <c r="AV20" s="89">
         <v>42913</v>
       </c>
-      <c r="AW20" s="53"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
+      <c r="AW20" s="89"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
       <c r="BC20" s="23"/>
     </row>
     <row r="21" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22">
         <v>15</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="66" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="70" t="s">
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="71">
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="91">
         <v>42913</v>
       </c>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71">
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91">
         <v>42913</v>
       </c>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71">
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="91">
         <v>42913</v>
       </c>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="69">
+      <c r="AD21" s="91"/>
+      <c r="AE21" s="88">
         <v>5</v>
       </c>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69">
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88">
         <v>3</v>
       </c>
-      <c r="AH21" s="69"/>
+      <c r="AH21" s="88"/>
       <c r="AI21" s="40"/>
       <c r="AJ21" s="41" t="s">
         <v>71</v>
@@ -3816,322 +3893,452 @@
       <c r="AM21" s="41"/>
       <c r="AN21" s="41"/>
       <c r="AO21" s="42"/>
-      <c r="AP21" s="53">
+      <c r="AP21" s="89">
         <v>42913</v>
       </c>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53">
+      <c r="AQ21" s="89"/>
+      <c r="AR21" s="89">
         <v>42913</v>
       </c>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53">
+      <c r="AS21" s="89"/>
+      <c r="AT21" s="89">
         <v>42913</v>
       </c>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53">
+      <c r="AU21" s="89"/>
+      <c r="AV21" s="89">
         <v>42913</v>
       </c>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
+      <c r="AW21" s="89"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
       <c r="BC21" s="23"/>
     </row>
     <row r="22" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22">
         <v>16</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
+      <c r="B22" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="91">
+        <v>42913</v>
+      </c>
+      <c r="Y22" s="91"/>
+      <c r="Z22" s="91"/>
+      <c r="AA22" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AB22" s="91"/>
+      <c r="AC22" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AD22" s="91"/>
+      <c r="AE22" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="88"/>
       <c r="AI22" s="40"/>
-      <c r="AJ22" s="41"/>
+      <c r="AJ22" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="AK22" s="41"/>
       <c r="AL22" s="41"/>
       <c r="AM22" s="41"/>
       <c r="AN22" s="41"/>
       <c r="AO22" s="42"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
+      <c r="AP22" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AQ22" s="89"/>
+      <c r="AR22" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AS22" s="89"/>
+      <c r="AT22" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AU22" s="89"/>
+      <c r="AV22" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AW22" s="89"/>
+      <c r="AX22" s="58"/>
+      <c r="AY22" s="58"/>
+      <c r="AZ22" s="58"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="58"/>
       <c r="BC22" s="23"/>
     </row>
     <row r="23" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22">
         <v>17</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
+      <c r="B23" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="91">
+        <v>42913</v>
+      </c>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AD23" s="91"/>
+      <c r="AE23" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="88"/>
       <c r="AI23" s="40"/>
-      <c r="AJ23" s="41"/>
+      <c r="AJ23" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="AK23" s="41"/>
       <c r="AL23" s="41"/>
       <c r="AM23" s="41"/>
       <c r="AN23" s="41"/>
       <c r="AO23" s="42"/>
-      <c r="AP23" s="53"/>
-      <c r="AQ23" s="53"/>
-      <c r="AR23" s="53"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53"/>
-      <c r="AU23" s="53"/>
-      <c r="AV23" s="53"/>
-      <c r="AW23" s="53"/>
-      <c r="AX23" s="70"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
+      <c r="AP23" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AQ23" s="89"/>
+      <c r="AR23" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AS23" s="89"/>
+      <c r="AT23" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AU23" s="89"/>
+      <c r="AV23" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AW23" s="89"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
       <c r="BC23" s="23"/>
     </row>
     <row r="24" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22">
         <v>18</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="61"/>
+      <c r="B24" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="91">
+        <v>42913</v>
+      </c>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AB24" s="91"/>
+      <c r="AC24" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AD24" s="91"/>
+      <c r="AE24" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="88"/>
       <c r="AI24" s="40"/>
-      <c r="AJ24" s="41"/>
+      <c r="AJ24" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="AK24" s="41"/>
       <c r="AL24" s="41"/>
       <c r="AM24" s="41"/>
       <c r="AN24" s="41"/>
       <c r="AO24" s="42"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="56"/>
-      <c r="AY24" s="57"/>
-      <c r="AZ24" s="57"/>
-      <c r="BA24" s="57"/>
-      <c r="BB24" s="58"/>
+      <c r="AP24" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AQ24" s="89"/>
+      <c r="AR24" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AS24" s="89"/>
+      <c r="AT24" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AU24" s="89"/>
+      <c r="AV24" s="89">
+        <v>42913</v>
+      </c>
+      <c r="AW24" s="89"/>
+      <c r="AX24" s="94"/>
+      <c r="AY24" s="95"/>
+      <c r="AZ24" s="95"/>
+      <c r="BA24" s="95"/>
+      <c r="BB24" s="96"/>
       <c r="BC24" s="23"/>
     </row>
     <row r="25" spans="1:60" s="21" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22">
         <v>19</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="61"/>
-      <c r="AI25" s="40"/>
+      <c r="B25" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="91">
+        <v>42913</v>
+      </c>
+      <c r="Y25" s="91"/>
+      <c r="Z25" s="91"/>
+      <c r="AA25" s="91">
+        <v>42913</v>
+      </c>
+      <c r="AB25" s="91"/>
+      <c r="AC25" s="91">
+        <v>42914</v>
+      </c>
+      <c r="AD25" s="91"/>
+      <c r="AE25" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="40" t="s">
+        <v>82</v>
+      </c>
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
       <c r="AL25" s="41"/>
       <c r="AM25" s="41"/>
       <c r="AN25" s="41"/>
       <c r="AO25" s="42"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="58"/>
+      <c r="AP25" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AQ25" s="89"/>
+      <c r="AR25" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AS25" s="89"/>
+      <c r="AT25" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AU25" s="89"/>
+      <c r="AV25" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AW25" s="89"/>
+      <c r="AX25" s="94"/>
+      <c r="AY25" s="95"/>
+      <c r="AZ25" s="95"/>
+      <c r="BA25" s="95"/>
+      <c r="BB25" s="96"/>
       <c r="BC25" s="23"/>
     </row>
     <row r="26" spans="1:60" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52">
+      <c r="A26" s="51">
         <v>20</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="54"/>
-      <c r="AB26" s="54"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="43"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
-      <c r="AU26" s="53"/>
-      <c r="AV26" s="53"/>
-      <c r="AW26" s="53"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
+      <c r="B26" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="111">
+        <v>42914</v>
+      </c>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="111">
+        <v>42914</v>
+      </c>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="111">
+        <v>42914</v>
+      </c>
+      <c r="AD26" s="111"/>
+      <c r="AE26" s="88">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ26" s="41"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AQ26" s="89"/>
+      <c r="AR26" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AS26" s="89"/>
+      <c r="AT26" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AU26" s="89"/>
+      <c r="AV26" s="89">
+        <v>42914</v>
+      </c>
+      <c r="AW26" s="89"/>
+      <c r="AX26" s="110"/>
+      <c r="AY26" s="110"/>
+      <c r="AZ26" s="110"/>
+      <c r="BA26" s="110"/>
+      <c r="BB26" s="110"/>
       <c r="BC26" s="24"/>
     </row>
     <row r="27" spans="1:60" s="28" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4165,25 +4372,25 @@
       <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="46"/>
-      <c r="AI27" s="46"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="46"/>
-      <c r="AM27" s="46"/>
-      <c r="AN27" s="46"/>
-      <c r="AO27" s="46"/>
-      <c r="AP27" s="46"/>
-      <c r="AQ27" s="46"/>
-      <c r="AR27" s="46"/>
-      <c r="AS27" s="46"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="45"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="45"/>
+      <c r="AQ27" s="45"/>
+      <c r="AR27" s="45"/>
+      <c r="AS27" s="45"/>
+      <c r="AT27" s="45"/>
+      <c r="AU27" s="45"/>
+      <c r="AV27" s="46"/>
+      <c r="AW27" s="46"/>
       <c r="BC27" s="27"/>
       <c r="BD27" s="27"/>
       <c r="BE27" s="27"/>
@@ -4984,24 +5191,260 @@
     </row>
   </sheetData>
   <mergeCells count="302">
+    <mergeCell ref="AR26:AS26"/>
+    <mergeCell ref="AT26:AU26"/>
+    <mergeCell ref="AV26:AW26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AP25:AQ25"/>
+    <mergeCell ref="AR25:AS25"/>
+    <mergeCell ref="AT25:AU25"/>
+    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX25:BB25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AX26:BB26"/>
+    <mergeCell ref="AP26:AQ26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="S23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AP23:AQ23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="S21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="S20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AX15:BB15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AX16:BB16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F14:R14"/>
+    <mergeCell ref="F11:R11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="F10:R10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AX4:BB6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BB8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="X5:Z6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="G4:R4"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AX21:BB21"/>
+    <mergeCell ref="AV23:AW23"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AV22:AW22"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AT20:AU20"/>
+    <mergeCell ref="AV20:AW20"/>
+    <mergeCell ref="AX23:BB23"/>
+    <mergeCell ref="AR23:AS23"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AP22:AQ22"/>
+    <mergeCell ref="AR22:AS22"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AX14:BB14"/>
+    <mergeCell ref="AP16:AQ16"/>
     <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AW1:BB2"/>
-    <mergeCell ref="AP1:AU2"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="F7:R7"/>
-    <mergeCell ref="AX7:BB7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="F13:R13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="F15:R15"/>
+    <mergeCell ref="AX24:BB24"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AR20:AS20"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AT23:AU23"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AP18:AQ18"/>
     <mergeCell ref="F26:R26"/>
     <mergeCell ref="F20:R20"/>
     <mergeCell ref="F21:R21"/>
@@ -5026,266 +5469,30 @@
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AX24:BB24"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AR20:AS20"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AT23:AU23"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="F13:R13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="F15:R15"/>
-    <mergeCell ref="AX14:BB14"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BB10"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AX21:BB21"/>
-    <mergeCell ref="AV23:AW23"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AV22:AW22"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AT20:AU20"/>
-    <mergeCell ref="AV20:AW20"/>
-    <mergeCell ref="AX23:BB23"/>
-    <mergeCell ref="AR23:AS23"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AP22:AQ22"/>
-    <mergeCell ref="AR22:AS22"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AT22:AU22"/>
+    <mergeCell ref="AW1:BB2"/>
+    <mergeCell ref="AP1:AU2"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="F7:R7"/>
+    <mergeCell ref="AX7:BB7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="Q1:V1"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="X5:Z6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="G4:R4"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AX4:BB6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BB8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="F9:R9"/>
-    <mergeCell ref="F10:R10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F14:R14"/>
-    <mergeCell ref="F11:R11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AX15:BB15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AX16:BB16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="S20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="S23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AP23:AQ23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="S21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AX25:BB25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AX26:BB26"/>
-    <mergeCell ref="AP26:AQ26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X25:Z25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AR26:AS26"/>
-    <mergeCell ref="AT26:AU26"/>
-    <mergeCell ref="AV26:AW26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AP25:AQ25"/>
-    <mergeCell ref="AR25:AS25"/>
-    <mergeCell ref="AT25:AU25"/>
-    <mergeCell ref="AV25:AW25"/>
+    <mergeCell ref="AX10:BB10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5299,4 +5506,19 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BB30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>